--- a/ZBP_07c_preockovani.xlsx
+++ b/ZBP_07c_preockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F415"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,6 +521,9 @@
       <c r="F2" t="n">
         <v>0.1</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -542,6 +550,9 @@
       <c r="F3" t="n">
         <v>0.36</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -568,6 +579,9 @@
       <c r="F4" t="n">
         <v>0.17</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,6 +608,9 @@
       <c r="F5" t="n">
         <v>0.06</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,6 +637,9 @@
       <c r="F6" t="n">
         <v>0.05</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -646,6 +666,9 @@
       <c r="F7" t="n">
         <v>0.02</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -672,6 +695,9 @@
       <c r="F8" t="n">
         <v>0.24</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -698,6 +724,9 @@
       <c r="F9" t="n">
         <v>0.13</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -724,6 +753,9 @@
       <c r="F10" t="n">
         <v>0.47</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -750,6 +782,9 @@
       <c r="F11" t="n">
         <v>0.22</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -776,6 +811,9 @@
       <c r="F12" t="n">
         <v>0.08</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -802,6 +840,9 @@
       <c r="F13" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -828,6 +869,9 @@
       <c r="F14" t="n">
         <v>0.03</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.02000000000000002</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -854,6 +898,9 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -880,6 +927,9 @@
       <c r="F16" t="n">
         <v>0.015</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -906,6 +956,9 @@
       <c r="F17" t="n">
         <v>0.24</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -932,6 +985,9 @@
       <c r="F18" t="n">
         <v>0.19</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -958,6 +1014,9 @@
       <c r="F19" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -984,6 +1043,9 @@
       <c r="F20" t="n">
         <v>0.11</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1010,6 +1072,9 @@
       <c r="F21" t="n">
         <v>0.06</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1036,6 +1101,9 @@
       <c r="F22" t="n">
         <v>0.315</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1062,6 +1130,9 @@
       <c r="F23" t="n">
         <v>0.05</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1088,6 +1159,9 @@
       <c r="F24" t="n">
         <v>0.34</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1114,6 +1188,9 @@
       <c r="F25" t="n">
         <v>0.18</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1140,6 +1217,9 @@
       <c r="F26" t="n">
         <v>0.09</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1166,6 +1246,9 @@
       <c r="F27" t="n">
         <v>0.05</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1192,6 +1275,9 @@
       <c r="F28" t="n">
         <v>0.02</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1218,6 +1304,9 @@
       <c r="F29" t="n">
         <v>0.27</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1244,6 +1333,9 @@
       <c r="F30" t="n">
         <v>0.21</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1270,6 +1362,9 @@
       <c r="F31" t="n">
         <v>0.46</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1391,9 @@
       <c r="F32" t="n">
         <v>0.14</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1322,6 +1420,9 @@
       <c r="F33" t="n">
         <v>0.04</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1348,6 +1449,9 @@
       <c r="F34" t="n">
         <v>0.01</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1374,6 +1478,9 @@
       <c r="F35" t="n">
         <v>0.005</v>
       </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1400,6 +1507,9 @@
       <c r="F36" t="n">
         <v>0.135</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1426,6 +1536,9 @@
       <c r="F37" t="n">
         <v>0.08</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1452,6 +1565,9 @@
       <c r="F38" t="n">
         <v>0.34</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1478,6 +1594,9 @@
       <c r="F39" t="n">
         <v>0.17</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1504,6 +1623,9 @@
       <c r="F40" t="n">
         <v>0.06</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1530,6 +1652,9 @@
       <c r="F41" t="n">
         <v>0.04</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1556,6 +1681,9 @@
       <c r="F42" t="n">
         <v>0.04</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1582,6 +1710,9 @@
       <c r="F43" t="n">
         <v>0.27</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1608,6 +1739,9 @@
       <c r="F44" t="n">
         <v>0.1</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1634,6 +1768,9 @@
       <c r="F45" t="n">
         <v>0.38</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1660,6 +1797,9 @@
       <c r="F46" t="n">
         <v>0.16</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1686,6 +1826,9 @@
       <c r="F47" t="n">
         <v>0.06</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1712,6 +1855,9 @@
       <c r="F48" t="n">
         <v>0.05</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1738,6 +1884,9 @@
       <c r="F49" t="n">
         <v>0.01</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1764,6 +1913,9 @@
       <c r="F50" t="n">
         <v>0.24</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1790,6 +1942,9 @@
       <c r="F51" t="n">
         <v>0.16</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1816,6 +1971,9 @@
       <c r="F52" t="n">
         <v>0.37</v>
       </c>
+      <c r="G52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1842,6 +2000,9 @@
       <c r="F53" t="n">
         <v>0.18</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1868,6 +2029,9 @@
       <c r="F54" t="n">
         <v>0.08</v>
       </c>
+      <c r="G54" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1894,6 +2058,9 @@
       <c r="F55" t="n">
         <v>0.08</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1920,6 +2087,9 @@
       <c r="F56" t="n">
         <v>0.02</v>
       </c>
+      <c r="G56" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1946,6 +2116,9 @@
       <c r="F57" t="n">
         <v>0.11</v>
       </c>
+      <c r="G57" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1972,6 +2145,9 @@
       <c r="F58" t="n">
         <v>0.01</v>
       </c>
+      <c r="G58" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1998,6 +2174,9 @@
       <c r="F59" t="n">
         <v>0.26</v>
       </c>
+      <c r="G59" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2024,6 +2203,9 @@
       <c r="F60" t="n">
         <v>0.15</v>
       </c>
+      <c r="G60" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2050,6 +2232,9 @@
       <c r="F61" t="n">
         <v>0.08</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2076,6 +2261,9 @@
       <c r="F62" t="n">
         <v>0.06</v>
       </c>
+      <c r="G62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2102,6 +2290,9 @@
       <c r="F63" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G63" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2128,6 +2319,9 @@
       <c r="F64" t="n">
         <v>0.37</v>
       </c>
+      <c r="G64" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2154,6 +2348,9 @@
       <c r="F65" t="n">
         <v>0.04</v>
       </c>
+      <c r="G65" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2180,6 +2377,9 @@
       <c r="F66" t="n">
         <v>0.3</v>
       </c>
+      <c r="G66" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2206,6 +2406,9 @@
       <c r="F67" t="n">
         <v>0.19</v>
       </c>
+      <c r="G67" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2232,6 +2435,9 @@
       <c r="F68" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G68" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2258,6 +2464,9 @@
       <c r="F69" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G69" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2284,6 +2493,9 @@
       <c r="F70" t="n">
         <v>0.01</v>
       </c>
+      <c r="G70" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2310,6 +2522,9 @@
       <c r="F71" t="n">
         <v>0.32</v>
       </c>
+      <c r="G71" t="n">
+        <v>0.275</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2336,6 +2551,9 @@
       <c r="F72" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G72" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2362,6 +2580,9 @@
       <c r="F73" t="n">
         <v>0.35</v>
       </c>
+      <c r="G73" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2388,6 +2609,9 @@
       <c r="F74" t="n">
         <v>0.22</v>
       </c>
+      <c r="G74" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2414,6 +2638,9 @@
       <c r="F75" t="n">
         <v>0.1</v>
       </c>
+      <c r="G75" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2440,6 +2667,9 @@
       <c r="F76" t="n">
         <v>0.12</v>
       </c>
+      <c r="G76" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2466,6 +2696,9 @@
       <c r="F77" t="n">
         <v>0.03</v>
       </c>
+      <c r="G77" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2492,6 +2725,9 @@
       <c r="F78" t="n">
         <v>0.11</v>
       </c>
+      <c r="G78" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2518,6 +2754,9 @@
       <c r="F79" t="n">
         <v>0.16</v>
       </c>
+      <c r="G79" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2544,6 +2783,9 @@
       <c r="F80" t="n">
         <v>0.42</v>
       </c>
+      <c r="G80" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2570,6 +2812,9 @@
       <c r="F81" t="n">
         <v>0.18</v>
       </c>
+      <c r="G81" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2596,6 +2841,9 @@
       <c r="F82" t="n">
         <v>0.04</v>
       </c>
+      <c r="G82" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2622,6 +2870,9 @@
       <c r="F83" t="n">
         <v>0.015</v>
       </c>
+      <c r="G83" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2648,6 +2899,9 @@
       <c r="F84" t="n">
         <v>0.005</v>
       </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2674,6 +2928,9 @@
       <c r="F85" t="n">
         <v>0.18</v>
       </c>
+      <c r="G85" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2700,6 +2957,9 @@
       <c r="F86" t="n">
         <v>0.23</v>
       </c>
+      <c r="G86" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2726,6 +2986,9 @@
       <c r="F87" t="n">
         <v>0.55</v>
       </c>
+      <c r="G87" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2752,6 +3015,9 @@
       <c r="F88" t="n">
         <v>0.1</v>
       </c>
+      <c r="G88" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2778,6 +3044,9 @@
       <c r="F89" t="n">
         <v>0.02</v>
       </c>
+      <c r="G89" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2804,6 +3073,9 @@
       <c r="F90" t="n">
         <v>0.01</v>
       </c>
+      <c r="G90" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2830,6 +3102,9 @@
       <c r="F91" t="n">
         <v>0.005</v>
       </c>
+      <c r="G91" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2856,6 +3131,9 @@
       <c r="F92" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="G92" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2874,7 +3152,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0.19</v>
@@ -2882,6 +3160,9 @@
       <c r="F93" t="n">
         <v>0.36</v>
       </c>
+      <c r="G93" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2908,6 +3189,9 @@
       <c r="F94" t="n">
         <v>0.43</v>
       </c>
+      <c r="G94" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2934,6 +3218,9 @@
       <c r="F95" t="n">
         <v>0.1</v>
       </c>
+      <c r="G95" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2960,6 +3247,9 @@
       <c r="F96" t="n">
         <v>0.02</v>
       </c>
+      <c r="G96" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2986,6 +3276,9 @@
       <c r="F97" t="n">
         <v>0.01</v>
       </c>
+      <c r="G97" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3012,6 +3305,9 @@
       <c r="F98" t="n">
         <v>0</v>
       </c>
+      <c r="G98" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3030,7 +3326,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="E99" t="n">
         <v>0.095</v>
@@ -3038,6 +3334,9 @@
       <c r="F99" t="n">
         <v>0.08</v>
       </c>
+      <c r="G99" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3064,6 +3363,9 @@
       <c r="F100" t="n">
         <v>0.08</v>
       </c>
+      <c r="G100" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3090,6 +3392,9 @@
       <c r="F101" t="n">
         <v>0.32</v>
       </c>
+      <c r="G101" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3116,6 +3421,9 @@
       <c r="F102" t="n">
         <v>0.19</v>
       </c>
+      <c r="G102" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3142,6 +3450,9 @@
       <c r="F103" t="n">
         <v>0.09</v>
       </c>
+      <c r="G103" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3168,6 +3479,9 @@
       <c r="F104" t="n">
         <v>0.06</v>
       </c>
+      <c r="G104" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3194,6 +3508,9 @@
       <c r="F105" t="n">
         <v>0.03</v>
       </c>
+      <c r="G105" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3220,6 +3537,9 @@
       <c r="F106" t="n">
         <v>0.23</v>
       </c>
+      <c r="G106" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3246,6 +3566,9 @@
       <c r="F107" t="n">
         <v>0.1</v>
       </c>
+      <c r="G107" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3272,6 +3595,9 @@
       <c r="F108" t="n">
         <v>0.52</v>
       </c>
+      <c r="G108" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3298,6 +3624,9 @@
       <c r="F109" t="n">
         <v>0.21</v>
       </c>
+      <c r="G109" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3324,6 +3653,9 @@
       <c r="F110" t="n">
         <v>0.06</v>
       </c>
+      <c r="G110" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3350,6 +3682,9 @@
       <c r="F111" t="n">
         <v>0.06</v>
       </c>
+      <c r="G111" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3376,6 +3711,9 @@
       <c r="F112" t="n">
         <v>0.005</v>
       </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3402,6 +3740,9 @@
       <c r="F113" t="n">
         <v>0.045</v>
       </c>
+      <c r="G113" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3428,6 +3769,9 @@
       <c r="F114" t="n">
         <v>0.09</v>
       </c>
+      <c r="G114" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3454,6 +3798,9 @@
       <c r="F115" t="n">
         <v>0.35</v>
       </c>
+      <c r="G115" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3480,6 +3827,9 @@
       <c r="F116" t="n">
         <v>0.15</v>
       </c>
+      <c r="G116" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3506,6 +3856,9 @@
       <c r="F117" t="n">
         <v>0.03</v>
       </c>
+      <c r="G117" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3532,6 +3885,9 @@
       <c r="F118" t="n">
         <v>0.05</v>
       </c>
+      <c r="G118" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3558,6 +3914,9 @@
       <c r="F119" t="n">
         <v>0.015</v>
       </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3584,6 +3943,9 @@
       <c r="F120" t="n">
         <v>0.315</v>
       </c>
+      <c r="G120" t="n">
+        <v>0.265</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3610,6 +3972,9 @@
       <c r="F121" t="n">
         <v>0.04</v>
       </c>
+      <c r="G121" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3636,6 +4001,9 @@
       <c r="F122" t="n">
         <v>0.29</v>
       </c>
+      <c r="G122" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3662,6 +4030,9 @@
       <c r="F123" t="n">
         <v>0.14</v>
       </c>
+      <c r="G123" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3688,6 +4059,9 @@
       <c r="F124" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G124" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3714,6 +4088,9 @@
       <c r="F125" t="n">
         <v>0.04</v>
       </c>
+      <c r="G125" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3740,6 +4117,9 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3766,6 +4146,9 @@
       <c r="F127" t="n">
         <v>0.42</v>
       </c>
+      <c r="G127" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3792,6 +4175,9 @@
       <c r="F128" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G128" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3818,6 +4204,9 @@
       <c r="F129" t="n">
         <v>0.34</v>
       </c>
+      <c r="G129" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3844,6 +4233,9 @@
       <c r="F130" t="n">
         <v>0.19</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3870,6 +4262,9 @@
       <c r="F131" t="n">
         <v>0.08</v>
       </c>
+      <c r="G131" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3896,6 +4291,9 @@
       <c r="F132" t="n">
         <v>0.06</v>
       </c>
+      <c r="G132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3922,6 +4320,9 @@
       <c r="F133" t="n">
         <v>0.03</v>
       </c>
+      <c r="G133" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3948,6 +4349,9 @@
       <c r="F134" t="n">
         <v>0.23</v>
       </c>
+      <c r="G134" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3974,6 +4378,9 @@
       <c r="F135" t="n">
         <v>0.1</v>
       </c>
+      <c r="G135" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4000,6 +4407,9 @@
       <c r="F136" t="n">
         <v>0.35</v>
       </c>
+      <c r="G136" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4026,6 +4436,9 @@
       <c r="F137" t="n">
         <v>0.15</v>
       </c>
+      <c r="G137" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4052,6 +4465,9 @@
       <c r="F138" t="n">
         <v>0.04</v>
       </c>
+      <c r="G138" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4078,6 +4494,9 @@
       <c r="F139" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G139" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4104,6 +4523,9 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
+      <c r="G140" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4130,6 +4552,9 @@
       <c r="F141" t="n">
         <v>0.29</v>
       </c>
+      <c r="G141" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4156,6 +4581,9 @@
       <c r="F142" t="n">
         <v>0.13</v>
       </c>
+      <c r="G142" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4182,6 +4610,9 @@
       <c r="F143" t="n">
         <v>0.3</v>
       </c>
+      <c r="G143" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4208,6 +4639,9 @@
       <c r="F144" t="n">
         <v>0.16</v>
       </c>
+      <c r="G144" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4234,6 +4668,9 @@
       <c r="F145" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G145" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4260,6 +4697,9 @@
       <c r="F146" t="n">
         <v>0.06</v>
       </c>
+      <c r="G146" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4286,6 +4726,9 @@
       <c r="F147" t="n">
         <v>0.06</v>
       </c>
+      <c r="G147" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4312,6 +4755,9 @@
       <c r="F148" t="n">
         <v>0.22</v>
       </c>
+      <c r="G148" t="n">
+        <v>0.225</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4338,6 +4784,9 @@
       <c r="F149" t="n">
         <v>0.14</v>
       </c>
+      <c r="G149" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4364,6 +4813,9 @@
       <c r="F150" t="n">
         <v>0.39</v>
       </c>
+      <c r="G150" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4390,6 +4842,9 @@
       <c r="F151" t="n">
         <v>0.15</v>
       </c>
+      <c r="G151" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4416,6 +4871,9 @@
       <c r="F152" t="n">
         <v>0.05</v>
       </c>
+      <c r="G152" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4442,6 +4900,9 @@
       <c r="F153" t="n">
         <v>0.04</v>
       </c>
+      <c r="G153" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4468,6 +4929,9 @@
       <c r="F154" t="n">
         <v>0.015</v>
       </c>
+      <c r="G154" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4494,6 +4958,9 @@
       <c r="F155" t="n">
         <v>0.215</v>
       </c>
+      <c r="G155" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4520,6 +4987,9 @@
       <c r="F156" t="n">
         <v>0.1</v>
       </c>
+      <c r="G156" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4546,6 +5016,9 @@
       <c r="F157" t="n">
         <v>0.42</v>
       </c>
+      <c r="G157" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4572,6 +5045,9 @@
       <c r="F158" t="n">
         <v>0.18</v>
       </c>
+      <c r="G158" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4598,6 +5074,9 @@
       <c r="F159" t="n">
         <v>0.06</v>
       </c>
+      <c r="G159" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4624,6 +5103,9 @@
       <c r="F160" t="n">
         <v>0.05</v>
       </c>
+      <c r="G160" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4650,6 +5132,9 @@
       <c r="F161" t="n">
         <v>0.01</v>
       </c>
+      <c r="G161" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4676,6 +5161,9 @@
       <c r="F162" t="n">
         <v>0.18</v>
       </c>
+      <c r="G162" t="n">
+        <v>0.205</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4702,6 +5190,9 @@
       <c r="F163" t="n">
         <v>0.1</v>
       </c>
+      <c r="G163" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4728,6 +5219,9 @@
       <c r="F164" t="n">
         <v>0.31</v>
       </c>
+      <c r="G164" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4754,6 +5248,9 @@
       <c r="F165" t="n">
         <v>0.16</v>
       </c>
+      <c r="G165" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4780,6 +5277,9 @@
       <c r="F166" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G166" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4806,6 +5306,9 @@
       <c r="F167" t="n">
         <v>0.06</v>
       </c>
+      <c r="G167" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4832,6 +5335,9 @@
       <c r="F168" t="n">
         <v>0.04</v>
       </c>
+      <c r="G168" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4858,6 +5364,9 @@
       <c r="F169" t="n">
         <v>0.26</v>
       </c>
+      <c r="G169" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4884,6 +5393,9 @@
       <c r="F170" t="n">
         <v>0.03</v>
       </c>
+      <c r="G170" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4910,6 +5422,9 @@
       <c r="F171" t="n">
         <v>0.27</v>
       </c>
+      <c r="G171" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4936,6 +5451,9 @@
       <c r="F172" t="n">
         <v>0.21</v>
       </c>
+      <c r="G172" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4962,6 +5480,9 @@
       <c r="F173" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G173" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4988,6 +5509,9 @@
       <c r="F174" t="n">
         <v>0.11</v>
       </c>
+      <c r="G174" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5014,6 +5538,9 @@
       <c r="F175" t="n">
         <v>0.02</v>
       </c>
+      <c r="G175" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5040,6 +5567,9 @@
       <c r="F176" t="n">
         <v>0.29</v>
       </c>
+      <c r="G176" t="n">
+        <v>0.295</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5066,6 +5596,9 @@
       <c r="F177" t="n">
         <v>0.04</v>
       </c>
+      <c r="G177" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5092,6 +5625,9 @@
       <c r="F178" t="n">
         <v>0.41</v>
       </c>
+      <c r="G178" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5118,6 +5654,9 @@
       <c r="F179" t="n">
         <v>0.2</v>
       </c>
+      <c r="G179" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5144,6 +5683,9 @@
       <c r="F180" t="n">
         <v>0.08</v>
       </c>
+      <c r="G180" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5170,6 +5712,9 @@
       <c r="F181" t="n">
         <v>0.04</v>
       </c>
+      <c r="G181" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5196,6 +5741,9 @@
       <c r="F182" t="n">
         <v>0.005</v>
       </c>
+      <c r="G182" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5222,6 +5770,9 @@
       <c r="F183" t="n">
         <v>0.225</v>
       </c>
+      <c r="G183" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5248,6 +5799,9 @@
       <c r="F184" t="n">
         <v>0.23</v>
       </c>
+      <c r="G184" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5274,6 +5828,9 @@
       <c r="F185" t="n">
         <v>0.53</v>
       </c>
+      <c r="G185" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5300,6 +5857,9 @@
       <c r="F186" t="n">
         <v>0.12</v>
       </c>
+      <c r="G186" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5326,6 +5886,9 @@
       <c r="F187" t="n">
         <v>0.02</v>
       </c>
+      <c r="G187" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5352,6 +5915,9 @@
       <c r="F188" t="n">
         <v>0.005</v>
       </c>
+      <c r="G188" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5378,6 +5944,9 @@
       <c r="F189" t="n">
         <v>0</v>
       </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5404,6 +5973,9 @@
       <c r="F190" t="n">
         <v>0.095</v>
       </c>
+      <c r="G190" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5430,6 +6002,9 @@
       <c r="F191" t="n">
         <v>0</v>
       </c>
+      <c r="G191" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5456,6 +6031,9 @@
       <c r="F192" t="n">
         <v>0.2</v>
       </c>
+      <c r="G192" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5482,6 +6060,9 @@
       <c r="F193" t="n">
         <v>0.16</v>
       </c>
+      <c r="G193" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5508,6 +6089,9 @@
       <c r="F194" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G194" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5534,6 +6118,9 @@
       <c r="F195" t="n">
         <v>0.1</v>
       </c>
+      <c r="G195" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5560,6 +6147,9 @@
       <c r="F196" t="n">
         <v>0.1</v>
       </c>
+      <c r="G196" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5586,6 +6176,9 @@
       <c r="F197" t="n">
         <v>0.37</v>
       </c>
+      <c r="G197" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5612,6 +6205,9 @@
       <c r="F198" t="n">
         <v>0.06</v>
       </c>
+      <c r="G198" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5638,6 +6234,9 @@
       <c r="F199" t="n">
         <v>0.27</v>
       </c>
+      <c r="G199" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5664,6 +6263,9 @@
       <c r="F200" t="n">
         <v>0.16</v>
       </c>
+      <c r="G200" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5690,6 +6292,9 @@
       <c r="F201" t="n">
         <v>0.1</v>
       </c>
+      <c r="G201" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5716,6 +6321,9 @@
       <c r="F202" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G202" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5742,6 +6350,9 @@
       <c r="F203" t="n">
         <v>0.03</v>
       </c>
+      <c r="G203" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5768,6 +6379,9 @@
       <c r="F204" t="n">
         <v>0.31</v>
       </c>
+      <c r="G204" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5794,6 +6408,9 @@
       <c r="F205" t="n">
         <v>0.19</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5820,6 +6437,9 @@
       <c r="F206" t="n">
         <v>0.4</v>
       </c>
+      <c r="G206" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5846,6 +6466,9 @@
       <c r="F207" t="n">
         <v>0.16</v>
       </c>
+      <c r="G207" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5872,6 +6495,9 @@
       <c r="F208" t="n">
         <v>0.05</v>
       </c>
+      <c r="G208" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5898,6 +6524,9 @@
       <c r="F209" t="n">
         <v>0.02</v>
       </c>
+      <c r="G209" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5924,6 +6553,9 @@
       <c r="F210" t="n">
         <v>0.005</v>
       </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5950,6 +6582,9 @@
       <c r="F211" t="n">
         <v>0.175</v>
       </c>
+      <c r="G211" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5976,6 +6611,9 @@
       <c r="F212" t="n">
         <v>0.1</v>
       </c>
+      <c r="G212" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6002,6 +6640,9 @@
       <c r="F213" t="n">
         <v>0.34</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6028,6 +6669,9 @@
       <c r="F214" t="n">
         <v>0.17</v>
       </c>
+      <c r="G214" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6054,6 +6698,9 @@
       <c r="F215" t="n">
         <v>0.06</v>
       </c>
+      <c r="G215" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6080,6 +6727,9 @@
       <c r="F216" t="n">
         <v>0.06</v>
       </c>
+      <c r="G216" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6106,6 +6756,9 @@
       <c r="F217" t="n">
         <v>0.03</v>
       </c>
+      <c r="G217" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6132,6 +6785,9 @@
       <c r="F218" t="n">
         <v>0.24</v>
       </c>
+      <c r="G218" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6158,6 +6814,9 @@
       <c r="F219" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G219" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6184,6 +6843,9 @@
       <c r="F220" t="n">
         <v>0.35</v>
       </c>
+      <c r="G220" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6210,6 +6872,9 @@
       <c r="F221" t="n">
         <v>0.18</v>
       </c>
+      <c r="G221" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6236,6 +6901,9 @@
       <c r="F222" t="n">
         <v>0.08</v>
       </c>
+      <c r="G222" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6262,6 +6930,9 @@
       <c r="F223" t="n">
         <v>0.05</v>
       </c>
+      <c r="G223" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6288,6 +6959,9 @@
       <c r="F224" t="n">
         <v>0.02</v>
       </c>
+      <c r="G224" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6314,6 +6988,9 @@
       <c r="F225" t="n">
         <v>0.25</v>
       </c>
+      <c r="G225" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6340,6 +7017,9 @@
       <c r="F226" t="n">
         <v>0.13</v>
       </c>
+      <c r="G226" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6366,6 +7046,9 @@
       <c r="F227" t="n">
         <v>0.31</v>
       </c>
+      <c r="G227" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6392,6 +7075,9 @@
       <c r="F228" t="n">
         <v>0.17</v>
       </c>
+      <c r="G228" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6418,6 +7104,9 @@
       <c r="F229" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G229" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6444,6 +7133,9 @@
       <c r="F230" t="n">
         <v>0.04</v>
       </c>
+      <c r="G230" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6470,6 +7162,9 @@
       <c r="F231" t="n">
         <v>0.03</v>
       </c>
+      <c r="G231" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6496,6 +7191,9 @@
       <c r="F232" t="n">
         <v>0.25</v>
       </c>
+      <c r="G232" t="n">
+        <v>0.335</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6522,6 +7220,9 @@
       <c r="F233" t="n">
         <v>0.14</v>
       </c>
+      <c r="G233" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6548,6 +7249,9 @@
       <c r="F234" t="n">
         <v>0.47</v>
       </c>
+      <c r="G234" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6574,6 +7278,9 @@
       <c r="F235" t="n">
         <v>0.16</v>
       </c>
+      <c r="G235" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6600,6 +7307,9 @@
       <c r="F236" t="n">
         <v>0.05</v>
       </c>
+      <c r="G236" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6626,6 +7336,9 @@
       <c r="F237" t="n">
         <v>0.03</v>
       </c>
+      <c r="G237" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6652,6 +7365,9 @@
       <c r="F238" t="n">
         <v>0.01</v>
       </c>
+      <c r="G238" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6678,6 +7394,9 @@
       <c r="F239" t="n">
         <v>0.14</v>
       </c>
+      <c r="G239" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6704,6 +7423,9 @@
       <c r="F240" t="n">
         <v>0.03</v>
       </c>
+      <c r="G240" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6730,6 +7452,9 @@
       <c r="F241" t="n">
         <v>0.27</v>
       </c>
+      <c r="G241" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6756,6 +7481,9 @@
       <c r="F242" t="n">
         <v>0.17</v>
       </c>
+      <c r="G242" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6782,6 +7510,9 @@
       <c r="F243" t="n">
         <v>0.08</v>
       </c>
+      <c r="G243" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6808,6 +7539,9 @@
       <c r="F244" t="n">
         <v>0.09</v>
       </c>
+      <c r="G244" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6834,6 +7568,9 @@
       <c r="F245" t="n">
         <v>0.05</v>
       </c>
+      <c r="G245" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6860,6 +7597,9 @@
       <c r="F246" t="n">
         <v>0.31</v>
       </c>
+      <c r="G246" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6886,6 +7626,9 @@
       <c r="F247" t="n">
         <v>0.04</v>
       </c>
+      <c r="G247" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6912,6 +7655,9 @@
       <c r="F248" t="n">
         <v>0.27</v>
       </c>
+      <c r="G248" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6938,6 +7684,9 @@
       <c r="F249" t="n">
         <v>0.19</v>
       </c>
+      <c r="G249" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6964,6 +7713,9 @@
       <c r="F250" t="n">
         <v>0.1</v>
       </c>
+      <c r="G250" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6990,6 +7742,9 @@
       <c r="F251" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7016,6 +7771,9 @@
       <c r="F252" t="n">
         <v>0.03</v>
       </c>
+      <c r="G252" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7042,6 +7800,9 @@
       <c r="F253" t="n">
         <v>0.3</v>
       </c>
+      <c r="G253" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7068,6 +7829,9 @@
       <c r="F254" t="n">
         <v>0.06</v>
       </c>
+      <c r="G254" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7094,6 +7858,9 @@
       <c r="F255" t="n">
         <v>0.27</v>
       </c>
+      <c r="G255" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7120,6 +7887,9 @@
       <c r="F256" t="n">
         <v>0.2</v>
       </c>
+      <c r="G256" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7146,6 +7916,9 @@
       <c r="F257" t="n">
         <v>0.09</v>
       </c>
+      <c r="G257" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7172,6 +7945,9 @@
       <c r="F258" t="n">
         <v>0.05</v>
       </c>
+      <c r="G258" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7198,6 +7974,9 @@
       <c r="F259" t="n">
         <v>0.03</v>
       </c>
+      <c r="G259" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7224,6 +8003,9 @@
       <c r="F260" t="n">
         <v>0.3</v>
       </c>
+      <c r="G260" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7250,6 +8032,9 @@
       <c r="F261" t="n">
         <v>0.04</v>
       </c>
+      <c r="G261" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7276,6 +8061,9 @@
       <c r="F262" t="n">
         <v>0.46</v>
       </c>
+      <c r="G262" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7302,6 +8090,9 @@
       <c r="F263" t="n">
         <v>0.19</v>
       </c>
+      <c r="G263" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7328,6 +8119,9 @@
       <c r="F264" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G264" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7354,6 +8148,9 @@
       <c r="F265" t="n">
         <v>0.04</v>
       </c>
+      <c r="G265" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7380,6 +8177,9 @@
       <c r="F266" t="n">
         <v>0.01</v>
       </c>
+      <c r="G266" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7406,6 +8206,9 @@
       <c r="F267" t="n">
         <v>0.19</v>
       </c>
+      <c r="G267" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7432,6 +8235,9 @@
       <c r="F268" t="n">
         <v>0.23</v>
       </c>
+      <c r="G268" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7458,6 +8264,9 @@
       <c r="F269" t="n">
         <v>0.46</v>
       </c>
+      <c r="G269" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7484,6 +8293,9 @@
       <c r="F270" t="n">
         <v>0.15</v>
       </c>
+      <c r="G270" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7510,6 +8322,9 @@
       <c r="F271" t="n">
         <v>0.03</v>
       </c>
+      <c r="G271" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7536,6 +8351,9 @@
       <c r="F272" t="n">
         <v>0</v>
       </c>
+      <c r="G272" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7562,6 +8380,9 @@
       <c r="F273" t="n">
         <v>0</v>
       </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7588,6 +8409,9 @@
       <c r="F274" t="n">
         <v>0.13</v>
       </c>
+      <c r="G274" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7614,6 +8438,9 @@
       <c r="F275" t="n">
         <v>0.11</v>
       </c>
+      <c r="G275" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7640,6 +8467,9 @@
       <c r="F276" t="n">
         <v>0.49</v>
       </c>
+      <c r="G276" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7666,6 +8496,9 @@
       <c r="F277" t="n">
         <v>0.16</v>
       </c>
+      <c r="G277" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7692,6 +8525,9 @@
       <c r="F278" t="n">
         <v>0.04</v>
       </c>
+      <c r="G278" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7718,6 +8554,9 @@
       <c r="F279" t="n">
         <v>0.03</v>
       </c>
+      <c r="G279" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7744,6 +8583,9 @@
       <c r="F280" t="n">
         <v>0</v>
       </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7770,6 +8612,9 @@
       <c r="F281" t="n">
         <v>0.17</v>
       </c>
+      <c r="G281" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7796,6 +8641,9 @@
       <c r="F282" t="n">
         <v>0.25</v>
       </c>
+      <c r="G282" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7822,6 +8670,9 @@
       <c r="F283" t="n">
         <v>0.37</v>
       </c>
+      <c r="G283" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7848,6 +8699,9 @@
       <c r="F284" t="n">
         <v>0.11</v>
       </c>
+      <c r="G284" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7874,6 +8728,9 @@
       <c r="F285" t="n">
         <v>0.05</v>
       </c>
+      <c r="G285" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7900,6 +8757,9 @@
       <c r="F286" t="n">
         <v>0.01</v>
       </c>
+      <c r="G286" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7926,6 +8786,9 @@
       <c r="F287" t="n">
         <v>0.03</v>
       </c>
+      <c r="G287" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7952,6 +8815,9 @@
       <c r="F288" t="n">
         <v>0.18</v>
       </c>
+      <c r="G288" t="n">
+        <v>0.225</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7970,7 +8836,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="E289" t="n">
         <v>0.12</v>
@@ -7978,6 +8844,9 @@
       <c r="F289" t="n">
         <v>0.27</v>
       </c>
+      <c r="G289" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8004,6 +8873,9 @@
       <c r="F290" t="n">
         <v>0.47</v>
       </c>
+      <c r="G290" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8030,6 +8902,9 @@
       <c r="F291" t="n">
         <v>0.11</v>
       </c>
+      <c r="G291" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8056,6 +8931,9 @@
       <c r="F292" t="n">
         <v>0.02</v>
       </c>
+      <c r="G292" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8082,6 +8960,9 @@
       <c r="F293" t="n">
         <v>0.015</v>
       </c>
+      <c r="G293" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8108,6 +8989,9 @@
       <c r="F294" t="n">
         <v>0.005</v>
       </c>
+      <c r="G294" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8126,7 +9010,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="E295" t="n">
         <v>0.11</v>
@@ -8134,6 +9018,9 @@
       <c r="F295" t="n">
         <v>0.11</v>
       </c>
+      <c r="G295" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8160,6 +9047,9 @@
       <c r="F296" t="n">
         <v>0.05</v>
       </c>
+      <c r="G296" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8186,6 +9076,9 @@
       <c r="F297" t="n">
         <v>0.32</v>
       </c>
+      <c r="G297" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8212,6 +9105,9 @@
       <c r="F298" t="n">
         <v>0.13</v>
       </c>
+      <c r="G298" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8238,6 +9134,9 @@
       <c r="F299" t="n">
         <v>0.03</v>
       </c>
+      <c r="G299" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8264,6 +9163,9 @@
       <c r="F300" t="n">
         <v>0.03</v>
       </c>
+      <c r="G300" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8290,6 +9192,9 @@
       <c r="F301" t="n">
         <v>0.05</v>
       </c>
+      <c r="G301" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8316,6 +9221,9 @@
       <c r="F302" t="n">
         <v>0.39</v>
       </c>
+      <c r="G302" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8342,6 +9250,9 @@
       <c r="F303" t="n">
         <v>0.1</v>
       </c>
+      <c r="G303" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8368,6 +9279,9 @@
       <c r="F304" t="n">
         <v>0.35</v>
       </c>
+      <c r="G304" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8394,6 +9308,9 @@
       <c r="F305" t="n">
         <v>0.18</v>
       </c>
+      <c r="G305" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8420,6 +9337,9 @@
       <c r="F306" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G306" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8446,6 +9366,9 @@
       <c r="F307" t="n">
         <v>0.04</v>
       </c>
+      <c r="G307" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8472,6 +9395,9 @@
       <c r="F308" t="n">
         <v>0.03</v>
       </c>
+      <c r="G308" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8498,6 +9424,9 @@
       <c r="F309" t="n">
         <v>0.23</v>
       </c>
+      <c r="G309" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8524,6 +9453,9 @@
       <c r="F310" t="n">
         <v>0.12</v>
       </c>
+      <c r="G310" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8550,6 +9482,9 @@
       <c r="F311" t="n">
         <v>0.41</v>
       </c>
+      <c r="G311" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8576,6 +9511,9 @@
       <c r="F312" t="n">
         <v>0.17</v>
       </c>
+      <c r="G312" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8602,6 +9540,9 @@
       <c r="F313" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G313" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8628,6 +9569,9 @@
       <c r="F314" t="n">
         <v>0.05</v>
       </c>
+      <c r="G314" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8654,6 +9598,9 @@
       <c r="F315" t="n">
         <v>0.01</v>
       </c>
+      <c r="G315" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8680,6 +9627,9 @@
       <c r="F316" t="n">
         <v>0.17</v>
       </c>
+      <c r="G316" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8706,6 +9656,9 @@
       <c r="F317" t="n">
         <v>0.15</v>
       </c>
+      <c r="G317" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8732,6 +9685,9 @@
       <c r="F318" t="n">
         <v>0.35</v>
       </c>
+      <c r="G318" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8758,6 +9714,9 @@
       <c r="F319" t="n">
         <v>0.14</v>
       </c>
+      <c r="G319" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8784,6 +9743,9 @@
       <c r="F320" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G320" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8810,6 +9772,9 @@
       <c r="F321" t="n">
         <v>0.1</v>
       </c>
+      <c r="G321" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8836,6 +9801,9 @@
       <c r="F322" t="n">
         <v>0.015</v>
       </c>
+      <c r="G322" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8862,6 +9830,9 @@
       <c r="F323" t="n">
         <v>0.175</v>
       </c>
+      <c r="G323" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8888,6 +9859,9 @@
       <c r="F324" t="n">
         <v>0.11</v>
       </c>
+      <c r="G324" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8914,6 +9888,9 @@
       <c r="F325" t="n">
         <v>0.43</v>
       </c>
+      <c r="G325" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8940,6 +9917,9 @@
       <c r="F326" t="n">
         <v>0.1</v>
       </c>
+      <c r="G326" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8966,6 +9946,9 @@
       <c r="F327" t="n">
         <v>0.05</v>
       </c>
+      <c r="G327" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8992,6 +9975,9 @@
       <c r="F328" t="n">
         <v>0.03</v>
       </c>
+      <c r="G328" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9018,6 +10004,9 @@
       <c r="F329" t="n">
         <v>0.005</v>
       </c>
+      <c r="G329" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9044,6 +10033,9 @@
       <c r="F330" t="n">
         <v>0.275</v>
       </c>
+      <c r="G330" t="n">
+        <v>0.265</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9070,6 +10062,9 @@
       <c r="F331" t="n">
         <v>0.19</v>
       </c>
+      <c r="G331" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9096,6 +10091,9 @@
       <c r="F332" t="n">
         <v>0.5</v>
       </c>
+      <c r="G332" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9122,6 +10120,9 @@
       <c r="F333" t="n">
         <v>0.13</v>
       </c>
+      <c r="G333" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9148,6 +10149,9 @@
       <c r="F334" t="n">
         <v>0.02</v>
       </c>
+      <c r="G334" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9174,6 +10178,9 @@
       <c r="F335" t="n">
         <v>0.015</v>
       </c>
+      <c r="G335" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9200,6 +10207,9 @@
       <c r="F336" t="n">
         <v>0.02</v>
       </c>
+      <c r="G336" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9226,6 +10236,9 @@
       <c r="F337" t="n">
         <v>0.125</v>
       </c>
+      <c r="G337" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9252,6 +10265,9 @@
       <c r="F338" t="n">
         <v>0.08</v>
       </c>
+      <c r="G338" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9278,6 +10294,9 @@
       <c r="F339" t="n">
         <v>0.35</v>
       </c>
+      <c r="G339" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9304,6 +10323,9 @@
       <c r="F340" t="n">
         <v>0.21</v>
       </c>
+      <c r="G340" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9330,6 +10352,9 @@
       <c r="F341" t="n">
         <v>0.06</v>
       </c>
+      <c r="G341" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9356,6 +10381,9 @@
       <c r="F342" t="n">
         <v>0.06</v>
       </c>
+      <c r="G342" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9382,6 +10410,9 @@
       <c r="F343" t="n">
         <v>0.015</v>
       </c>
+      <c r="G343" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9408,6 +10439,9 @@
       <c r="F344" t="n">
         <v>0.225</v>
       </c>
+      <c r="G344" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9434,6 +10468,9 @@
       <c r="F345" t="n">
         <v>0.14</v>
       </c>
+      <c r="G345" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9460,6 +10497,9 @@
       <c r="F346" t="n">
         <v>0.45</v>
       </c>
+      <c r="G346" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9486,6 +10526,9 @@
       <c r="F347" t="n">
         <v>0.18</v>
       </c>
+      <c r="G347" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9512,6 +10555,9 @@
       <c r="F348" t="n">
         <v>0.08</v>
       </c>
+      <c r="G348" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9538,6 +10584,9 @@
       <c r="F349" t="n">
         <v>0.03</v>
       </c>
+      <c r="G349" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9564,6 +10613,9 @@
       <c r="F350" t="n">
         <v>0.01</v>
       </c>
+      <c r="G350" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9590,6 +10642,9 @@
       <c r="F351" t="n">
         <v>0.11</v>
       </c>
+      <c r="G351" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9616,6 +10671,9 @@
       <c r="F352" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G352" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9642,6 +10700,9 @@
       <c r="F353" t="n">
         <v>0.23</v>
       </c>
+      <c r="G353" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9668,6 +10729,9 @@
       <c r="F354" t="n">
         <v>0.23</v>
       </c>
+      <c r="G354" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9694,6 +10758,9 @@
       <c r="F355" t="n">
         <v>0.08</v>
       </c>
+      <c r="G355" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9720,6 +10787,9 @@
       <c r="F356" t="n">
         <v>0.09</v>
       </c>
+      <c r="G356" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9746,6 +10816,9 @@
       <c r="F357" t="n">
         <v>0.04</v>
       </c>
+      <c r="G357" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9772,6 +10845,9 @@
       <c r="F358" t="n">
         <v>0.26</v>
       </c>
+      <c r="G358" t="n">
+        <v>0.285</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9798,6 +10874,9 @@
       <c r="F359" t="n">
         <v>0.1</v>
       </c>
+      <c r="G359" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9824,6 +10903,9 @@
       <c r="F360" t="n">
         <v>0.35</v>
       </c>
+      <c r="G360" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9850,6 +10932,9 @@
       <c r="F361" t="n">
         <v>0.14</v>
       </c>
+      <c r="G361" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9876,6 +10961,9 @@
       <c r="F362" t="n">
         <v>0.06</v>
       </c>
+      <c r="G362" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9902,6 +10990,9 @@
       <c r="F363" t="n">
         <v>0.06</v>
       </c>
+      <c r="G363" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9928,6 +11019,9 @@
       <c r="F364" t="n">
         <v>0.02</v>
       </c>
+      <c r="G364" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9954,6 +11048,9 @@
       <c r="F365" t="n">
         <v>0.27</v>
       </c>
+      <c r="G365" t="n">
+        <v>0.235</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9980,6 +11077,9 @@
       <c r="F366" t="n">
         <v>0.11</v>
       </c>
+      <c r="G366" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10006,6 +11106,9 @@
       <c r="F367" t="n">
         <v>0.39</v>
       </c>
+      <c r="G367" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10032,6 +11135,9 @@
       <c r="F368" t="n">
         <v>0.18</v>
       </c>
+      <c r="G368" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10058,6 +11164,9 @@
       <c r="F369" t="n">
         <v>0.06</v>
       </c>
+      <c r="G369" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10084,6 +11193,9 @@
       <c r="F370" t="n">
         <v>0.05</v>
       </c>
+      <c r="G370" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10110,6 +11222,9 @@
       <c r="F371" t="n">
         <v>0.015</v>
       </c>
+      <c r="G371" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10136,6 +11251,9 @@
       <c r="F372" t="n">
         <v>0.195</v>
       </c>
+      <c r="G372" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10162,6 +11280,9 @@
       <c r="F373" t="n">
         <v>0.1</v>
       </c>
+      <c r="G373" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10188,6 +11309,9 @@
       <c r="F374" t="n">
         <v>0.34</v>
       </c>
+      <c r="G374" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10214,6 +11338,9 @@
       <c r="F375" t="n">
         <v>0.18</v>
       </c>
+      <c r="G375" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10240,6 +11367,9 @@
       <c r="F376" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G376" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10266,6 +11396,9 @@
       <c r="F377" t="n">
         <v>0.04</v>
       </c>
+      <c r="G377" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10292,6 +11425,9 @@
       <c r="F378" t="n">
         <v>0.03</v>
       </c>
+      <c r="G378" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10318,6 +11454,9 @@
       <c r="F379" t="n">
         <v>0.24</v>
       </c>
+      <c r="G379" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10344,6 +11483,9 @@
       <c r="F380" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G380" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10362,13 +11504,16 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E381" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F381" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="382">
@@ -10388,13 +11533,16 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E382" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F382" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="383">
@@ -10414,13 +11562,16 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E383" t="n">
         <v>0.12</v>
       </c>
       <c r="F383" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="384">
@@ -10443,11 +11594,14 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F384" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G384" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10466,14 +11620,17 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E385" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F385" t="n">
         <v>0.02</v>
       </c>
+      <c r="G385" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10492,13 +11649,16 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="E386" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="F386" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.275</v>
       </c>
     </row>
     <row r="387">
@@ -10517,15 +11677,6 @@
           <t>Již očkován/a třetí dávkou</t>
         </is>
       </c>
-      <c r="D387" t="n">
-        <v>0</v>
-      </c>
-      <c r="E387" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F387" t="n">
-        <v>0.11</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10543,15 +11694,6 @@
           <t>Rozhodně ano</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E388" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F388" t="n">
-        <v>0.37</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10569,15 +11711,6 @@
           <t>Spíše ano</t>
         </is>
       </c>
-      <c r="D389" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E389" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F389" t="n">
-        <v>0.17</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10595,15 +11728,6 @@
           <t>Nevím</t>
         </is>
       </c>
-      <c r="D390" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E390" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F390" t="n">
-        <v>0.07000000000000001</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10621,15 +11745,6 @@
           <t>Spíše ne</t>
         </is>
       </c>
-      <c r="D391" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E391" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F391" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -10647,15 +11762,6 @@
           <t>Rozhodně ne</t>
         </is>
       </c>
-      <c r="D392" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E392" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F392" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -10673,15 +11779,6 @@
           <t>Není očkován/a ani jednou dávkou</t>
         </is>
       </c>
-      <c r="D393" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E393" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F393" t="n">
-        <v>0.21</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -10708,6 +11805,9 @@
       <c r="F394" t="n">
         <v>0.1</v>
       </c>
+      <c r="G394" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -10734,6 +11834,9 @@
       <c r="F395" t="n">
         <v>0.24</v>
       </c>
+      <c r="G395" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -10760,6 +11863,9 @@
       <c r="F396" t="n">
         <v>0.14</v>
       </c>
+      <c r="G396" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10786,6 +11892,9 @@
       <c r="F397" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G397" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10812,6 +11921,9 @@
       <c r="F398" t="n">
         <v>0.1</v>
       </c>
+      <c r="G398" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10838,6 +11950,9 @@
       <c r="F399" t="n">
         <v>0.04</v>
       </c>
+      <c r="G399" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10864,6 +11979,9 @@
       <c r="F400" t="n">
         <v>0.31</v>
       </c>
+      <c r="G400" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -10890,6 +12008,9 @@
       <c r="F401" t="n">
         <v>0.08</v>
       </c>
+      <c r="G401" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10916,6 +12037,9 @@
       <c r="F402" t="n">
         <v>0.32</v>
       </c>
+      <c r="G402" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10942,6 +12066,9 @@
       <c r="F403" t="n">
         <v>0.19</v>
       </c>
+      <c r="G403" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10968,6 +12095,9 @@
       <c r="F404" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="G404" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10994,6 +12124,9 @@
       <c r="F405" t="n">
         <v>0.04</v>
       </c>
+      <c r="G405" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11020,6 +12153,9 @@
       <c r="F406" t="n">
         <v>0.04</v>
       </c>
+      <c r="G406" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11046,6 +12182,9 @@
       <c r="F407" t="n">
         <v>0.26</v>
       </c>
+      <c r="G407" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11072,6 +12211,9 @@
       <c r="F408" t="n">
         <v>0.12</v>
       </c>
+      <c r="G408" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11098,6 +12240,9 @@
       <c r="F409" t="n">
         <v>0.44</v>
       </c>
+      <c r="G409" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11124,6 +12269,9 @@
       <c r="F410" t="n">
         <v>0.17</v>
       </c>
+      <c r="G410" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11150,6 +12298,9 @@
       <c r="F411" t="n">
         <v>0.05</v>
       </c>
+      <c r="G411" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11176,6 +12327,9 @@
       <c r="F412" t="n">
         <v>0.04</v>
       </c>
+      <c r="G412" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11202,6 +12356,9 @@
       <c r="F413" t="n">
         <v>0.005</v>
       </c>
+      <c r="G413" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11228,11 +12385,14 @@
       <c r="F414" t="n">
         <v>0.175</v>
       </c>
+      <c r="G414" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -11247,7 +12407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11281,6 +12441,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11302,6 +12467,9 @@
       <c r="E2" t="n">
         <v>1790</v>
       </c>
+      <c r="F2" t="n">
+        <v>1767</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11323,6 +12491,9 @@
       <c r="E3" t="n">
         <v>412</v>
       </c>
+      <c r="F3" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11344,6 +12515,9 @@
       <c r="E4" t="n">
         <v>1378</v>
       </c>
+      <c r="F4" t="n">
+        <v>1361</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11365,6 +12539,9 @@
       <c r="E5" t="n">
         <v>452</v>
       </c>
+      <c r="F5" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11386,6 +12563,9 @@
       <c r="E6" t="n">
         <v>647</v>
       </c>
+      <c r="F6" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11407,6 +12587,9 @@
       <c r="E7" t="n">
         <v>691</v>
       </c>
+      <c r="F7" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11428,6 +12611,9 @@
       <c r="E8" t="n">
         <v>829</v>
       </c>
+      <c r="F8" t="n">
+        <v>818</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11449,6 +12635,9 @@
       <c r="E9" t="n">
         <v>608</v>
       </c>
+      <c r="F9" t="n">
+        <v>606</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11470,6 +12659,9 @@
       <c r="E10" t="n">
         <v>353</v>
       </c>
+      <c r="F10" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11491,6 +12683,9 @@
       <c r="E11" t="n">
         <v>430</v>
       </c>
+      <c r="F11" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11512,6 +12707,9 @@
       <c r="E12" t="n">
         <v>426</v>
       </c>
+      <c r="F12" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11533,6 +12731,9 @@
       <c r="E13" t="n">
         <v>243</v>
       </c>
+      <c r="F13" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11554,6 +12755,9 @@
       <c r="E14" t="n">
         <v>399</v>
       </c>
+      <c r="F14" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11575,6 +12779,9 @@
       <c r="E15" t="n">
         <v>182</v>
       </c>
+      <c r="F15" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11596,6 +12803,9 @@
       <c r="E16" t="n">
         <v>110</v>
       </c>
+      <c r="F16" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11617,6 +12827,9 @@
       <c r="E17" t="n">
         <v>777</v>
       </c>
+      <c r="F17" t="n">
+        <v>567</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11638,6 +12851,9 @@
       <c r="E18" t="n">
         <v>59</v>
       </c>
+      <c r="F18" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11659,6 +12875,9 @@
       <c r="E19" t="n">
         <v>97</v>
       </c>
+      <c r="F19" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11680,6 +12899,9 @@
       <c r="E20" t="n">
         <v>85</v>
       </c>
+      <c r="F20" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11701,6 +12923,9 @@
       <c r="E21" t="n">
         <v>829</v>
       </c>
+      <c r="F21" t="n">
+        <v>817</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11722,6 +12947,9 @@
       <c r="E22" t="n">
         <v>144</v>
       </c>
+      <c r="F22" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11743,6 +12971,9 @@
       <c r="E23" t="n">
         <v>113</v>
       </c>
+      <c r="F23" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11764,6 +12995,9 @@
       <c r="E24" t="n">
         <v>704</v>
       </c>
+      <c r="F24" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11785,6 +13019,9 @@
       <c r="E25" t="n">
         <v>872</v>
       </c>
+      <c r="F25" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11806,6 +13043,9 @@
       <c r="E26" t="n">
         <v>918</v>
       </c>
+      <c r="F26" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11827,6 +13067,9 @@
       <c r="E27" t="n">
         <v>242</v>
       </c>
+      <c r="F27" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11848,6 +13091,9 @@
       <c r="E28" t="n">
         <v>319</v>
       </c>
+      <c r="F28" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11869,6 +13115,9 @@
       <c r="E29" t="n">
         <v>311</v>
       </c>
+      <c r="F29" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11890,6 +13139,9 @@
       <c r="E30" t="n">
         <v>210</v>
       </c>
+      <c r="F30" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11911,6 +13163,9 @@
       <c r="E31" t="n">
         <v>328</v>
       </c>
+      <c r="F31" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11932,6 +13187,9 @@
       <c r="E32" t="n">
         <v>380</v>
       </c>
+      <c r="F32" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11953,6 +13211,9 @@
       <c r="E33" t="n">
         <v>929</v>
       </c>
+      <c r="F33" t="n">
+        <v>916</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11974,6 +13235,9 @@
       <c r="E34" t="n">
         <v>419</v>
       </c>
+      <c r="F34" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11995,6 +13259,9 @@
       <c r="E35" t="n">
         <v>206</v>
       </c>
+      <c r="F35" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12016,6 +13283,9 @@
       <c r="E36" t="n">
         <v>236</v>
       </c>
+      <c r="F36" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12037,6 +13307,9 @@
       <c r="E37" t="n">
         <v>580</v>
       </c>
+      <c r="F37" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12058,6 +13331,9 @@
       <c r="E38" t="n">
         <v>259</v>
       </c>
+      <c r="F38" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12079,6 +13355,9 @@
       <c r="E39" t="n">
         <v>131</v>
       </c>
+      <c r="F39" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12100,6 +13379,9 @@
       <c r="E40" t="n">
         <v>130</v>
       </c>
+      <c r="F40" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12121,6 +13403,9 @@
       <c r="E41" t="n">
         <v>349</v>
       </c>
+      <c r="F41" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12142,6 +13427,9 @@
       <c r="E42" t="n">
         <v>160</v>
       </c>
+      <c r="F42" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12163,6 +13451,9 @@
       <c r="E43" t="n">
         <v>75</v>
       </c>
+      <c r="F43" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12184,6 +13475,9 @@
       <c r="E44" t="n">
         <v>106</v>
       </c>
+      <c r="F44" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12205,6 +13499,9 @@
       <c r="E45" t="n">
         <v>204</v>
       </c>
+      <c r="F45" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12226,6 +13523,9 @@
       <c r="E46" t="n">
         <v>633</v>
       </c>
+      <c r="F46" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12247,6 +13547,9 @@
       <c r="E47" t="n">
         <v>585</v>
       </c>
+      <c r="F47" t="n">
+        <v>596</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12268,6 +13571,9 @@
       <c r="E48" t="n">
         <v>266</v>
       </c>
+      <c r="F48" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12289,6 +13595,9 @@
       <c r="E49" t="n">
         <v>331</v>
       </c>
+      <c r="F49" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12310,6 +13619,9 @@
       <c r="E50" t="n">
         <v>256</v>
       </c>
+      <c r="F50" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12331,6 +13643,9 @@
       <c r="E51" t="n">
         <v>274</v>
       </c>
+      <c r="F51" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12352,6 +13667,9 @@
       <c r="E52" t="n">
         <v>268</v>
       </c>
+      <c r="F52" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12373,6 +13691,9 @@
       <c r="E53" t="n">
         <v>424</v>
       </c>
+      <c r="F53" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12394,6 +13715,9 @@
       <c r="E54" t="n">
         <v>517</v>
       </c>
+      <c r="F54" t="n">
+        <v>579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12415,6 +13739,9 @@
       <c r="E55" t="n">
         <v>610</v>
       </c>
+      <c r="F55" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12436,6 +13763,9 @@
       <c r="E56" t="n">
         <v>663</v>
       </c>
+      <c r="F56" t="n">
+        <v>741</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12449,13 +13779,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="D57" t="n">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="E57" t="n">
-        <v>322</v>
+        <v>353</v>
+      </c>
+      <c r="F57" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="58">
@@ -12470,13 +13803,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1593</v>
+        <v>1489</v>
       </c>
       <c r="D58" t="n">
-        <v>1436</v>
+        <v>1370</v>
       </c>
       <c r="E58" t="n">
-        <v>1468</v>
+        <v>1437</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1401</v>
       </c>
     </row>
     <row r="59">
@@ -12499,6 +13835,9 @@
       <c r="E59" t="n">
         <v>339</v>
       </c>
+      <c r="F59" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12520,6 +13859,9 @@
       <c r="E60" t="n">
         <v>653</v>
       </c>
+      <c r="F60" t="n">
+        <v>723</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12541,17 +13883,21 @@
       <c r="E61" t="n">
         <v>798</v>
       </c>
+      <c r="F61" t="n">
+        <v>622</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07c_preockovani.xlsx
+++ b/ZBP_07c_preockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:H415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -524,6 +529,9 @@
       <c r="G2" t="n">
         <v>0.27</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -553,6 +561,9 @@
       <c r="G3" t="n">
         <v>0.21</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -582,6 +593,9 @@
       <c r="G4" t="n">
         <v>0.15</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -611,6 +625,9 @@
       <c r="G5" t="n">
         <v>0.08</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -640,6 +657,9 @@
       <c r="G6" t="n">
         <v>0.04</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -669,6 +689,9 @@
       <c r="G7" t="n">
         <v>0.02</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -698,6 +721,9 @@
       <c r="G8" t="n">
         <v>0.23</v>
       </c>
+      <c r="H8" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -727,6 +753,9 @@
       <c r="G9" t="n">
         <v>0.35</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -756,6 +785,9 @@
       <c r="G10" t="n">
         <v>0.28</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -785,6 +817,9 @@
       <c r="G11" t="n">
         <v>0.19</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -814,6 +849,9 @@
       <c r="G12" t="n">
         <v>0.1</v>
       </c>
+      <c r="H12" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,6 +881,9 @@
       <c r="G13" t="n">
         <v>0.06</v>
       </c>
+      <c r="H13" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -872,6 +913,9 @@
       <c r="G14" t="n">
         <v>0.02000000000000002</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -901,6 +945,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -930,6 +977,9 @@
       <c r="G16" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -959,6 +1009,9 @@
       <c r="G17" t="n">
         <v>0.25</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -988,6 +1041,9 @@
       <c r="G18" t="n">
         <v>0.18</v>
       </c>
+      <c r="H18" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1017,6 +1073,9 @@
       <c r="G19" t="n">
         <v>0.11</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1046,6 +1105,9 @@
       <c r="G20" t="n">
         <v>0.06</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1075,6 +1137,9 @@
       <c r="G21" t="n">
         <v>0.03</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1104,6 +1169,9 @@
       <c r="G22" t="n">
         <v>0.3</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1133,6 +1201,9 @@
       <c r="G23" t="n">
         <v>0.16</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1162,6 +1233,9 @@
       <c r="G24" t="n">
         <v>0.22</v>
       </c>
+      <c r="H24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1191,6 +1265,9 @@
       <c r="G25" t="n">
         <v>0.18</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1220,6 +1297,9 @@
       <c r="G26" t="n">
         <v>0.11</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1249,6 +1329,9 @@
       <c r="G27" t="n">
         <v>0.05</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1278,6 +1361,9 @@
       <c r="G28" t="n">
         <v>0.03</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1307,6 +1393,9 @@
       <c r="G29" t="n">
         <v>0.25</v>
       </c>
+      <c r="H29" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1336,6 +1425,9 @@
       <c r="G30" t="n">
         <v>0.51</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1365,6 +1457,9 @@
       <c r="G31" t="n">
         <v>0.18</v>
       </c>
+      <c r="H31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1394,6 +1489,9 @@
       <c r="G32" t="n">
         <v>0.09</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1423,6 +1521,9 @@
       <c r="G33" t="n">
         <v>0.03</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1452,6 +1553,9 @@
       <c r="G34" t="n">
         <v>0.03</v>
       </c>
+      <c r="H34" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1481,6 +1585,9 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1510,6 +1617,9 @@
       <c r="G36" t="n">
         <v>0.16</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1539,6 +1649,9 @@
       <c r="G37" t="n">
         <v>0.24</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1568,6 +1681,9 @@
       <c r="G38" t="n">
         <v>0.18</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1597,6 +1713,9 @@
       <c r="G39" t="n">
         <v>0.14</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1626,6 +1745,9 @@
       <c r="G40" t="n">
         <v>0.08</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1655,6 +1777,9 @@
       <c r="G41" t="n">
         <v>0.04</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1684,6 +1809,9 @@
       <c r="G42" t="n">
         <v>0.03</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1713,6 +1841,9 @@
       <c r="G43" t="n">
         <v>0.29</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1742,6 +1873,9 @@
       <c r="G44" t="n">
         <v>0.27</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1771,6 +1905,9 @@
       <c r="G45" t="n">
         <v>0.24</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1800,6 +1937,9 @@
       <c r="G46" t="n">
         <v>0.14</v>
       </c>
+      <c r="H46" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1829,6 +1969,9 @@
       <c r="G47" t="n">
         <v>0.08</v>
       </c>
+      <c r="H47" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1858,6 +2001,9 @@
       <c r="G48" t="n">
         <v>0.03</v>
       </c>
+      <c r="H48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1887,6 +2033,9 @@
       <c r="G49" t="n">
         <v>0.01</v>
       </c>
+      <c r="H49" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1916,6 +2065,9 @@
       <c r="G50" t="n">
         <v>0.23</v>
       </c>
+      <c r="H50" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1945,6 +2097,9 @@
       <c r="G51" t="n">
         <v>0.33</v>
       </c>
+      <c r="H51" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1974,6 +2129,9 @@
       <c r="G52" t="n">
         <v>0.25</v>
       </c>
+      <c r="H52" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2003,6 +2161,9 @@
       <c r="G53" t="n">
         <v>0.18</v>
       </c>
+      <c r="H53" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2032,6 +2193,9 @@
       <c r="G54" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H54" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2061,6 +2225,9 @@
       <c r="G55" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H55" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2090,6 +2257,9 @@
       <c r="G56" t="n">
         <v>0.01</v>
       </c>
+      <c r="H56" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2119,6 +2289,9 @@
       <c r="G57" t="n">
         <v>0.09</v>
       </c>
+      <c r="H57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2148,6 +2321,9 @@
       <c r="G58" t="n">
         <v>0.08</v>
       </c>
+      <c r="H58" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2177,6 +2353,9 @@
       <c r="G59" t="n">
         <v>0.19</v>
       </c>
+      <c r="H59" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2206,6 +2385,9 @@
       <c r="G60" t="n">
         <v>0.15</v>
       </c>
+      <c r="H60" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2235,6 +2417,9 @@
       <c r="G61" t="n">
         <v>0.11</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2264,6 +2449,9 @@
       <c r="G62" t="n">
         <v>0.05</v>
       </c>
+      <c r="H62" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2293,6 +2481,9 @@
       <c r="G63" t="n">
         <v>0.06</v>
       </c>
+      <c r="H63" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2322,6 +2513,9 @@
       <c r="G64" t="n">
         <v>0.36</v>
       </c>
+      <c r="H64" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2351,6 +2545,9 @@
       <c r="G65" t="n">
         <v>0.15</v>
       </c>
+      <c r="H65" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2380,6 +2577,9 @@
       <c r="G66" t="n">
         <v>0.24</v>
       </c>
+      <c r="H66" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2409,6 +2609,9 @@
       <c r="G67" t="n">
         <v>0.17</v>
       </c>
+      <c r="H67" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2438,6 +2641,9 @@
       <c r="G68" t="n">
         <v>0.11</v>
       </c>
+      <c r="H68" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2467,6 +2673,9 @@
       <c r="G69" t="n">
         <v>0.04</v>
       </c>
+      <c r="H69" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2496,6 +2705,9 @@
       <c r="G70" t="n">
         <v>0.015</v>
       </c>
+      <c r="H70" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2525,6 +2737,9 @@
       <c r="G71" t="n">
         <v>0.275</v>
       </c>
+      <c r="H71" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2554,6 +2769,9 @@
       <c r="G72" t="n">
         <v>0.15</v>
       </c>
+      <c r="H72" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2583,6 +2801,9 @@
       <c r="G73" t="n">
         <v>0.32</v>
       </c>
+      <c r="H73" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2612,6 +2833,9 @@
       <c r="G74" t="n">
         <v>0.25</v>
       </c>
+      <c r="H74" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2641,6 +2865,9 @@
       <c r="G75" t="n">
         <v>0.09</v>
       </c>
+      <c r="H75" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2670,6 +2897,9 @@
       <c r="G76" t="n">
         <v>0.09</v>
       </c>
+      <c r="H76" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2699,6 +2929,9 @@
       <c r="G77" t="n">
         <v>0.015</v>
       </c>
+      <c r="H77" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2728,6 +2961,9 @@
       <c r="G78" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="H78" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2757,6 +2993,9 @@
       <c r="G79" t="n">
         <v>0.42</v>
       </c>
+      <c r="H79" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2786,6 +3025,9 @@
       <c r="G80" t="n">
         <v>0.17</v>
       </c>
+      <c r="H80" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2815,6 +3057,9 @@
       <c r="G81" t="n">
         <v>0.12</v>
       </c>
+      <c r="H81" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2844,6 +3089,9 @@
       <c r="G82" t="n">
         <v>0.04</v>
       </c>
+      <c r="H82" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2873,6 +3121,9 @@
       <c r="G83" t="n">
         <v>0.04</v>
       </c>
+      <c r="H83" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2902,6 +3153,9 @@
       <c r="G84" t="n">
         <v>0</v>
       </c>
+      <c r="H84" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2931,6 +3185,9 @@
       <c r="G85" t="n">
         <v>0.21</v>
       </c>
+      <c r="H85" t="n">
+        <v>0.205</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2960,6 +3217,9 @@
       <c r="G86" t="n">
         <v>0.58</v>
       </c>
+      <c r="H86" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2989,6 +3249,9 @@
       <c r="G87" t="n">
         <v>0.24</v>
       </c>
+      <c r="H87" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3018,6 +3281,9 @@
       <c r="G88" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H88" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3047,6 +3313,9 @@
       <c r="G89" t="n">
         <v>0.02</v>
       </c>
+      <c r="H89" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3076,6 +3345,9 @@
       <c r="G90" t="n">
         <v>0.01</v>
       </c>
+      <c r="H90" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3105,6 +3377,9 @@
       <c r="G91" t="n">
         <v>0.005</v>
       </c>
+      <c r="H91" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3134,6 +3409,9 @@
       <c r="G92" t="n">
         <v>0.075</v>
       </c>
+      <c r="H92" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3163,6 +3441,9 @@
       <c r="G93" t="n">
         <v>0.73</v>
       </c>
+      <c r="H93" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3192,6 +3473,9 @@
       <c r="G94" t="n">
         <v>0.11</v>
       </c>
+      <c r="H94" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3221,6 +3505,9 @@
       <c r="G95" t="n">
         <v>0.04</v>
       </c>
+      <c r="H95" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3250,6 +3537,9 @@
       <c r="G96" t="n">
         <v>0.015</v>
       </c>
+      <c r="H96" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3279,6 +3569,9 @@
       <c r="G97" t="n">
         <v>0.02</v>
       </c>
+      <c r="H97" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3308,6 +3601,9 @@
       <c r="G98" t="n">
         <v>0.005</v>
       </c>
+      <c r="H98" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3337,6 +3633,9 @@
       <c r="G99" t="n">
         <v>0.08</v>
       </c>
+      <c r="H99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3366,6 +3665,9 @@
       <c r="G100" t="n">
         <v>0.17</v>
       </c>
+      <c r="H100" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3395,6 +3697,9 @@
       <c r="G101" t="n">
         <v>0.22</v>
       </c>
+      <c r="H101" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3424,6 +3729,9 @@
       <c r="G102" t="n">
         <v>0.18</v>
       </c>
+      <c r="H102" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3453,6 +3761,9 @@
       <c r="G103" t="n">
         <v>0.11</v>
       </c>
+      <c r="H103" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3482,6 +3793,9 @@
       <c r="G104" t="n">
         <v>0.05</v>
       </c>
+      <c r="H104" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3511,6 +3825,9 @@
       <c r="G105" t="n">
         <v>0.04</v>
       </c>
+      <c r="H105" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3540,6 +3857,9 @@
       <c r="G106" t="n">
         <v>0.23</v>
       </c>
+      <c r="H106" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3569,6 +3889,9 @@
       <c r="G107" t="n">
         <v>0.31</v>
       </c>
+      <c r="H107" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3598,6 +3921,9 @@
       <c r="G108" t="n">
         <v>0.25</v>
       </c>
+      <c r="H108" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3627,6 +3953,9 @@
       <c r="G109" t="n">
         <v>0.17</v>
       </c>
+      <c r="H109" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3656,6 +3985,9 @@
       <c r="G110" t="n">
         <v>0.09</v>
       </c>
+      <c r="H110" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3685,6 +4017,9 @@
       <c r="G111" t="n">
         <v>0.015</v>
       </c>
+      <c r="H111" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3714,6 +4049,9 @@
       <c r="G112" t="n">
         <v>0</v>
       </c>
+      <c r="H112" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3743,6 +4081,9 @@
       <c r="G113" t="n">
         <v>0.165</v>
       </c>
+      <c r="H113" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3772,6 +4113,9 @@
       <c r="G114" t="n">
         <v>0.26</v>
       </c>
+      <c r="H114" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3801,6 +4145,9 @@
       <c r="G115" t="n">
         <v>0.31</v>
       </c>
+      <c r="H115" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3830,6 +4177,9 @@
       <c r="G116" t="n">
         <v>0.1</v>
       </c>
+      <c r="H116" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3859,6 +4209,9 @@
       <c r="G117" t="n">
         <v>0.06</v>
       </c>
+      <c r="H117" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3888,6 +4241,9 @@
       <c r="G118" t="n">
         <v>0.005</v>
       </c>
+      <c r="H118" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3917,6 +4273,9 @@
       <c r="G119" t="n">
         <v>0</v>
       </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3946,6 +4305,9 @@
       <c r="G120" t="n">
         <v>0.265</v>
       </c>
+      <c r="H120" t="n">
+        <v>0.255</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3975,6 +4337,9 @@
       <c r="G121" t="n">
         <v>0.17</v>
       </c>
+      <c r="H121" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4004,6 +4369,9 @@
       <c r="G122" t="n">
         <v>0.18</v>
       </c>
+      <c r="H122" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4033,6 +4401,9 @@
       <c r="G123" t="n">
         <v>0.18</v>
       </c>
+      <c r="H123" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4062,6 +4433,9 @@
       <c r="G124" t="n">
         <v>0.14</v>
       </c>
+      <c r="H124" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4091,6 +4465,9 @@
       <c r="G125" t="n">
         <v>0.06</v>
       </c>
+      <c r="H125" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4120,6 +4497,9 @@
       <c r="G126" t="n">
         <v>0</v>
       </c>
+      <c r="H126" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4149,6 +4529,9 @@
       <c r="G127" t="n">
         <v>0.27</v>
       </c>
+      <c r="H127" t="n">
+        <v>0.325</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4178,6 +4561,9 @@
       <c r="G128" t="n">
         <v>0.18</v>
       </c>
+      <c r="H128" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4207,6 +4593,9 @@
       <c r="G129" t="n">
         <v>0.25</v>
       </c>
+      <c r="H129" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4236,6 +4625,9 @@
       <c r="G130" t="n">
         <v>0.18</v>
       </c>
+      <c r="H130" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4265,6 +4657,9 @@
       <c r="G131" t="n">
         <v>0.1</v>
       </c>
+      <c r="H131" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4294,6 +4689,9 @@
       <c r="G132" t="n">
         <v>0.05</v>
       </c>
+      <c r="H132" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4323,6 +4721,9 @@
       <c r="G133" t="n">
         <v>0.02</v>
       </c>
+      <c r="H133" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4352,6 +4753,9 @@
       <c r="G134" t="n">
         <v>0.22</v>
       </c>
+      <c r="H134" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4381,6 +4785,9 @@
       <c r="G135" t="n">
         <v>0.3</v>
       </c>
+      <c r="H135" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4410,6 +4817,9 @@
       <c r="G136" t="n">
         <v>0.2</v>
       </c>
+      <c r="H136" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4439,6 +4849,9 @@
       <c r="G137" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H137" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4468,6 +4881,9 @@
       <c r="G138" t="n">
         <v>0.08</v>
       </c>
+      <c r="H138" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4497,6 +4913,9 @@
       <c r="G139" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H139" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4526,6 +4945,9 @@
       <c r="G140" t="n">
         <v>0.02</v>
       </c>
+      <c r="H140" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4555,6 +4977,9 @@
       <c r="G141" t="n">
         <v>0.26</v>
       </c>
+      <c r="H141" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4584,6 +5009,9 @@
       <c r="G142" t="n">
         <v>0.33</v>
       </c>
+      <c r="H142" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4613,6 +5041,9 @@
       <c r="G143" t="n">
         <v>0.15</v>
       </c>
+      <c r="H143" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4642,6 +5073,9 @@
       <c r="G144" t="n">
         <v>0.14</v>
       </c>
+      <c r="H144" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4671,6 +5105,9 @@
       <c r="G145" t="n">
         <v>0.14</v>
       </c>
+      <c r="H145" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4700,6 +5137,9 @@
       <c r="G146" t="n">
         <v>0.005</v>
       </c>
+      <c r="H146" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4729,6 +5169,9 @@
       <c r="G147" t="n">
         <v>0.01</v>
       </c>
+      <c r="H147" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4758,6 +5201,9 @@
       <c r="G148" t="n">
         <v>0.225</v>
       </c>
+      <c r="H148" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4787,6 +5233,9 @@
       <c r="G149" t="n">
         <v>0.36</v>
       </c>
+      <c r="H149" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4816,6 +5265,9 @@
       <c r="G150" t="n">
         <v>0.19</v>
       </c>
+      <c r="H150" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4845,6 +5297,9 @@
       <c r="G151" t="n">
         <v>0.13</v>
       </c>
+      <c r="H151" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4874,6 +5329,9 @@
       <c r="G152" t="n">
         <v>0.04</v>
       </c>
+      <c r="H152" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4903,6 +5361,9 @@
       <c r="G153" t="n">
         <v>0.04</v>
       </c>
+      <c r="H153" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4932,6 +5393,9 @@
       <c r="G154" t="n">
         <v>0.02</v>
       </c>
+      <c r="H154" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4961,6 +5425,9 @@
       <c r="G155" t="n">
         <v>0.22</v>
       </c>
+      <c r="H155" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4990,6 +5457,9 @@
       <c r="G156" t="n">
         <v>0.3</v>
       </c>
+      <c r="H156" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5019,6 +5489,9 @@
       <c r="G157" t="n">
         <v>0.23</v>
       </c>
+      <c r="H157" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5048,6 +5521,9 @@
       <c r="G158" t="n">
         <v>0.15</v>
       </c>
+      <c r="H158" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5077,6 +5553,9 @@
       <c r="G159" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H159" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5106,6 +5585,9 @@
       <c r="G160" t="n">
         <v>0.03</v>
       </c>
+      <c r="H160" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5135,6 +5617,9 @@
       <c r="G161" t="n">
         <v>0.015</v>
       </c>
+      <c r="H161" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5164,6 +5649,9 @@
       <c r="G162" t="n">
         <v>0.205</v>
       </c>
+      <c r="H162" t="n">
+        <v>0.205</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5193,6 +5681,9 @@
       <c r="G163" t="n">
         <v>0.24</v>
       </c>
+      <c r="H163" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5222,6 +5713,9 @@
       <c r="G164" t="n">
         <v>0.2</v>
       </c>
+      <c r="H164" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5251,6 +5745,9 @@
       <c r="G165" t="n">
         <v>0.14</v>
       </c>
+      <c r="H165" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5280,6 +5777,9 @@
       <c r="G166" t="n">
         <v>0.08</v>
       </c>
+      <c r="H166" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5309,6 +5809,9 @@
       <c r="G167" t="n">
         <v>0.06</v>
       </c>
+      <c r="H167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5338,6 +5841,9 @@
       <c r="G168" t="n">
         <v>0.03</v>
       </c>
+      <c r="H168" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5367,6 +5873,9 @@
       <c r="G169" t="n">
         <v>0.25</v>
       </c>
+      <c r="H169" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5396,6 +5905,9 @@
       <c r="G170" t="n">
         <v>0.11</v>
       </c>
+      <c r="H170" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5425,6 +5937,9 @@
       <c r="G171" t="n">
         <v>0.27</v>
       </c>
+      <c r="H171" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5454,6 +5969,9 @@
       <c r="G172" t="n">
         <v>0.18</v>
       </c>
+      <c r="H172" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5483,6 +6001,9 @@
       <c r="G173" t="n">
         <v>0.09</v>
       </c>
+      <c r="H173" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5512,6 +6033,9 @@
       <c r="G174" t="n">
         <v>0.04</v>
       </c>
+      <c r="H174" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5541,6 +6065,9 @@
       <c r="G175" t="n">
         <v>0.015</v>
       </c>
+      <c r="H175" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5570,6 +6097,9 @@
       <c r="G176" t="n">
         <v>0.295</v>
       </c>
+      <c r="H176" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5599,6 +6129,9 @@
       <c r="G177" t="n">
         <v>0.17</v>
       </c>
+      <c r="H177" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5628,6 +6161,9 @@
       <c r="G178" t="n">
         <v>0.22</v>
       </c>
+      <c r="H178" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5657,6 +6193,9 @@
       <c r="G179" t="n">
         <v>0.22</v>
       </c>
+      <c r="H179" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5686,6 +6225,9 @@
       <c r="G180" t="n">
         <v>0.1</v>
       </c>
+      <c r="H180" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5715,6 +6257,9 @@
       <c r="G181" t="n">
         <v>0.03</v>
       </c>
+      <c r="H181" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5744,6 +6289,9 @@
       <c r="G182" t="n">
         <v>0.02</v>
       </c>
+      <c r="H182" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5773,6 +6321,9 @@
       <c r="G183" t="n">
         <v>0.24</v>
       </c>
+      <c r="H183" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5802,6 +6353,9 @@
       <c r="G184" t="n">
         <v>0.59</v>
       </c>
+      <c r="H184" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5831,6 +6385,9 @@
       <c r="G185" t="n">
         <v>0.21</v>
       </c>
+      <c r="H185" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5860,6 +6417,9 @@
       <c r="G186" t="n">
         <v>0.05</v>
       </c>
+      <c r="H186" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5889,6 +6449,9 @@
       <c r="G187" t="n">
         <v>0.02</v>
       </c>
+      <c r="H187" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5918,6 +6481,9 @@
       <c r="G188" t="n">
         <v>0.015</v>
       </c>
+      <c r="H188" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5947,6 +6513,9 @@
       <c r="G189" t="n">
         <v>0</v>
       </c>
+      <c r="H189" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5976,6 +6545,9 @@
       <c r="G190" t="n">
         <v>0.115</v>
       </c>
+      <c r="H190" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6005,6 +6577,9 @@
       <c r="G191" t="n">
         <v>0.03</v>
       </c>
+      <c r="H191" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6034,6 +6609,9 @@
       <c r="G192" t="n">
         <v>0.23</v>
       </c>
+      <c r="H192" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6063,6 +6641,9 @@
       <c r="G193" t="n">
         <v>0.17</v>
       </c>
+      <c r="H193" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6092,6 +6673,9 @@
       <c r="G194" t="n">
         <v>0.12</v>
       </c>
+      <c r="H194" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6121,6 +6705,9 @@
       <c r="G195" t="n">
         <v>0.08</v>
       </c>
+      <c r="H195" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6150,6 +6737,9 @@
       <c r="G196" t="n">
         <v>0.04</v>
       </c>
+      <c r="H196" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6179,6 +6769,9 @@
       <c r="G197" t="n">
         <v>0.33</v>
       </c>
+      <c r="H197" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6208,6 +6801,9 @@
       <c r="G198" t="n">
         <v>0.14</v>
       </c>
+      <c r="H198" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6237,6 +6833,9 @@
       <c r="G199" t="n">
         <v>0.23</v>
       </c>
+      <c r="H199" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6266,6 +6865,9 @@
       <c r="G200" t="n">
         <v>0.14</v>
       </c>
+      <c r="H200" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6295,6 +6897,9 @@
       <c r="G201" t="n">
         <v>0.11</v>
       </c>
+      <c r="H201" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6324,6 +6929,9 @@
       <c r="G202" t="n">
         <v>0.06</v>
       </c>
+      <c r="H202" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6353,6 +6961,9 @@
       <c r="G203" t="n">
         <v>0.04</v>
       </c>
+      <c r="H203" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6382,6 +6993,9 @@
       <c r="G204" t="n">
         <v>0.28</v>
       </c>
+      <c r="H204" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6411,6 +7025,9 @@
       <c r="G205" t="n">
         <v>0.44</v>
       </c>
+      <c r="H205" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6440,6 +7057,9 @@
       <c r="G206" t="n">
         <v>0.15</v>
       </c>
+      <c r="H206" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6469,6 +7089,9 @@
       <c r="G207" t="n">
         <v>0.13</v>
       </c>
+      <c r="H207" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6498,6 +7121,9 @@
       <c r="G208" t="n">
         <v>0.04</v>
       </c>
+      <c r="H208" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6527,6 +7153,9 @@
       <c r="G209" t="n">
         <v>0.04</v>
       </c>
+      <c r="H209" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6556,6 +7185,9 @@
       <c r="G210" t="n">
         <v>0</v>
       </c>
+      <c r="H210" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6585,6 +7217,9 @@
       <c r="G211" t="n">
         <v>0.2</v>
       </c>
+      <c r="H211" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6614,6 +7249,9 @@
       <c r="G212" t="n">
         <v>0.26</v>
       </c>
+      <c r="H212" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6643,6 +7281,9 @@
       <c r="G213" t="n">
         <v>0.2</v>
       </c>
+      <c r="H213" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6672,6 +7313,9 @@
       <c r="G214" t="n">
         <v>0.16</v>
       </c>
+      <c r="H214" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6701,6 +7345,9 @@
       <c r="G215" t="n">
         <v>0.09</v>
       </c>
+      <c r="H215" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6730,6 +7377,9 @@
       <c r="G216" t="n">
         <v>0.04</v>
       </c>
+      <c r="H216" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6759,6 +7409,9 @@
       <c r="G217" t="n">
         <v>0.02</v>
       </c>
+      <c r="H217" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6788,6 +7441,9 @@
       <c r="G218" t="n">
         <v>0.23</v>
       </c>
+      <c r="H218" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6817,6 +7473,9 @@
       <c r="G219" t="n">
         <v>0.21</v>
       </c>
+      <c r="H219" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6846,6 +7505,9 @@
       <c r="G220" t="n">
         <v>0.25</v>
       </c>
+      <c r="H220" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6875,6 +7537,9 @@
       <c r="G221" t="n">
         <v>0.16</v>
       </c>
+      <c r="H221" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6904,6 +7569,9 @@
       <c r="G222" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H222" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6933,6 +7601,9 @@
       <c r="G223" t="n">
         <v>0.06</v>
       </c>
+      <c r="H223" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6962,6 +7633,9 @@
       <c r="G224" t="n">
         <v>0.02</v>
       </c>
+      <c r="H224" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6991,6 +7665,9 @@
       <c r="G225" t="n">
         <v>0.23</v>
       </c>
+      <c r="H225" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7020,6 +7697,9 @@
       <c r="G226" t="n">
         <v>0.28</v>
       </c>
+      <c r="H226" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7049,6 +7729,9 @@
       <c r="G227" t="n">
         <v>0.14</v>
       </c>
+      <c r="H227" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7078,6 +7761,9 @@
       <c r="G228" t="n">
         <v>0.13</v>
       </c>
+      <c r="H228" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7107,6 +7793,9 @@
       <c r="G229" t="n">
         <v>0.06</v>
       </c>
+      <c r="H229" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7136,6 +7825,9 @@
       <c r="G230" t="n">
         <v>0.05</v>
       </c>
+      <c r="H230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7165,6 +7857,9 @@
       <c r="G231" t="n">
         <v>0.005</v>
       </c>
+      <c r="H231" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7194,6 +7889,9 @@
       <c r="G232" t="n">
         <v>0.335</v>
       </c>
+      <c r="H232" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7223,6 +7921,9 @@
       <c r="G233" t="n">
         <v>0.43</v>
       </c>
+      <c r="H233" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7252,6 +7953,9 @@
       <c r="G234" t="n">
         <v>0.26</v>
       </c>
+      <c r="H234" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7281,6 +7985,9 @@
       <c r="G235" t="n">
         <v>0.1</v>
       </c>
+      <c r="H235" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7310,6 +8017,9 @@
       <c r="G236" t="n">
         <v>0.05</v>
       </c>
+      <c r="H236" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7339,6 +8049,9 @@
       <c r="G237" t="n">
         <v>0.03</v>
       </c>
+      <c r="H237" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7368,6 +8081,9 @@
       <c r="G238" t="n">
         <v>0.005</v>
       </c>
+      <c r="H238" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7397,6 +8113,9 @@
       <c r="G239" t="n">
         <v>0.125</v>
       </c>
+      <c r="H239" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7426,6 +8145,9 @@
       <c r="G240" t="n">
         <v>0.1</v>
       </c>
+      <c r="H240" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7455,6 +8177,9 @@
       <c r="G241" t="n">
         <v>0.2</v>
       </c>
+      <c r="H241" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7484,6 +8209,9 @@
       <c r="G242" t="n">
         <v>0.21</v>
       </c>
+      <c r="H242" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7513,6 +8241,9 @@
       <c r="G243" t="n">
         <v>0.13</v>
       </c>
+      <c r="H243" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7542,6 +8273,9 @@
       <c r="G244" t="n">
         <v>0.05</v>
       </c>
+      <c r="H244" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7571,6 +8305,9 @@
       <c r="G245" t="n">
         <v>0.04</v>
       </c>
+      <c r="H245" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7600,6 +8337,9 @@
       <c r="G246" t="n">
         <v>0.27</v>
       </c>
+      <c r="H246" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7629,6 +8369,9 @@
       <c r="G247" t="n">
         <v>0.12</v>
       </c>
+      <c r="H247" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7658,6 +8401,9 @@
       <c r="G248" t="n">
         <v>0.29</v>
       </c>
+      <c r="H248" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7687,6 +8433,9 @@
       <c r="G249" t="n">
         <v>0.15</v>
       </c>
+      <c r="H249" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7716,6 +8465,9 @@
       <c r="G250" t="n">
         <v>0.1</v>
       </c>
+      <c r="H250" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7745,6 +8497,9 @@
       <c r="G251" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H251" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7774,6 +8529,9 @@
       <c r="G252" t="n">
         <v>0.04</v>
       </c>
+      <c r="H252" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7803,6 +8561,9 @@
       <c r="G253" t="n">
         <v>0.23</v>
       </c>
+      <c r="H253" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7832,6 +8593,9 @@
       <c r="G254" t="n">
         <v>0.09</v>
       </c>
+      <c r="H254" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7861,6 +8625,9 @@
       <c r="G255" t="n">
         <v>0.19</v>
       </c>
+      <c r="H255" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7890,6 +8657,9 @@
       <c r="G256" t="n">
         <v>0.17</v>
       </c>
+      <c r="H256" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7919,6 +8689,9 @@
       <c r="G257" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H257" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7948,6 +8721,9 @@
       <c r="G258" t="n">
         <v>0.04</v>
       </c>
+      <c r="H258" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7977,6 +8753,9 @@
       <c r="G259" t="n">
         <v>0.01</v>
       </c>
+      <c r="H259" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8006,6 +8785,9 @@
       <c r="G260" t="n">
         <v>0.43</v>
       </c>
+      <c r="H260" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8035,6 +8817,9 @@
       <c r="G261" t="n">
         <v>0.24</v>
       </c>
+      <c r="H261" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8064,6 +8849,9 @@
       <c r="G262" t="n">
         <v>0.34</v>
       </c>
+      <c r="H262" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8093,6 +8881,9 @@
       <c r="G263" t="n">
         <v>0.14</v>
       </c>
+      <c r="H263" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8122,6 +8913,9 @@
       <c r="G264" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H264" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8151,6 +8945,9 @@
       <c r="G265" t="n">
         <v>0.03</v>
       </c>
+      <c r="H265" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8180,6 +8977,9 @@
       <c r="G266" t="n">
         <v>0.005</v>
       </c>
+      <c r="H266" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8209,6 +9009,9 @@
       <c r="G267" t="n">
         <v>0.175</v>
       </c>
+      <c r="H267" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8238,6 +9041,9 @@
       <c r="G268" t="n">
         <v>0.52</v>
       </c>
+      <c r="H268" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8267,6 +9073,9 @@
       <c r="G269" t="n">
         <v>0.21</v>
       </c>
+      <c r="H269" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8296,6 +9105,9 @@
       <c r="G270" t="n">
         <v>0.08</v>
       </c>
+      <c r="H270" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8325,6 +9137,9 @@
       <c r="G271" t="n">
         <v>0.03</v>
       </c>
+      <c r="H271" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8354,6 +9169,9 @@
       <c r="G272" t="n">
         <v>0.02</v>
       </c>
+      <c r="H272" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8383,6 +9201,9 @@
       <c r="G273" t="n">
         <v>0</v>
       </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8412,6 +9233,9 @@
       <c r="G274" t="n">
         <v>0.14</v>
       </c>
+      <c r="H274" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8441,6 +9265,9 @@
       <c r="G275" t="n">
         <v>0.38</v>
       </c>
+      <c r="H275" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8470,6 +9297,9 @@
       <c r="G276" t="n">
         <v>0.19</v>
       </c>
+      <c r="H276" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8499,6 +9329,9 @@
       <c r="G277" t="n">
         <v>0.17</v>
       </c>
+      <c r="H277" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8528,6 +9361,9 @@
       <c r="G278" t="n">
         <v>0.03</v>
       </c>
+      <c r="H278" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8557,6 +9393,9 @@
       <c r="G279" t="n">
         <v>0.04</v>
       </c>
+      <c r="H279" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8586,6 +9425,9 @@
       <c r="G280" t="n">
         <v>0</v>
       </c>
+      <c r="H280" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8615,6 +9457,9 @@
       <c r="G281" t="n">
         <v>0.19</v>
       </c>
+      <c r="H281" t="n">
+        <v>0.185</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8644,6 +9489,9 @@
       <c r="G282" t="n">
         <v>0.52</v>
       </c>
+      <c r="H282" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8673,6 +9521,9 @@
       <c r="G283" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H283" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8702,6 +9553,9 @@
       <c r="G284" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H284" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8731,6 +9585,9 @@
       <c r="G285" t="n">
         <v>0.05</v>
       </c>
+      <c r="H285" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8760,6 +9617,9 @@
       <c r="G286" t="n">
         <v>0.06</v>
       </c>
+      <c r="H286" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8789,6 +9649,9 @@
       <c r="G287" t="n">
         <v>0.005</v>
       </c>
+      <c r="H287" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8818,6 +9681,9 @@
       <c r="G288" t="n">
         <v>0.225</v>
       </c>
+      <c r="H288" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8847,6 +9713,9 @@
       <c r="G289" t="n">
         <v>0.66</v>
       </c>
+      <c r="H289" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8876,6 +9745,9 @@
       <c r="G290" t="n">
         <v>0.15</v>
       </c>
+      <c r="H290" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8905,6 +9777,9 @@
       <c r="G291" t="n">
         <v>0.05</v>
       </c>
+      <c r="H291" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8934,6 +9809,9 @@
       <c r="G292" t="n">
         <v>0.02</v>
       </c>
+      <c r="H292" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8963,6 +9841,9 @@
       <c r="G293" t="n">
         <v>0.015</v>
       </c>
+      <c r="H293" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8992,6 +9873,9 @@
       <c r="G294" t="n">
         <v>0.01</v>
       </c>
+      <c r="H294" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9021,6 +9905,9 @@
       <c r="G295" t="n">
         <v>0.095</v>
       </c>
+      <c r="H295" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9050,6 +9937,9 @@
       <c r="G296" t="n">
         <v>0.16</v>
       </c>
+      <c r="H296" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9079,6 +9969,9 @@
       <c r="G297" t="n">
         <v>0.12</v>
       </c>
+      <c r="H297" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9108,6 +10001,9 @@
       <c r="G298" t="n">
         <v>0.15</v>
       </c>
+      <c r="H298" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9137,6 +10033,9 @@
       <c r="G299" t="n">
         <v>0.1</v>
       </c>
+      <c r="H299" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9166,6 +10065,9 @@
       <c r="G300" t="n">
         <v>0.03</v>
       </c>
+      <c r="H300" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9195,6 +10097,9 @@
       <c r="G301" t="n">
         <v>0.04</v>
       </c>
+      <c r="H301" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9224,6 +10129,9 @@
       <c r="G302" t="n">
         <v>0.4</v>
       </c>
+      <c r="H302" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9253,6 +10161,9 @@
       <c r="G303" t="n">
         <v>0.27</v>
       </c>
+      <c r="H303" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9282,6 +10193,9 @@
       <c r="G304" t="n">
         <v>0.22</v>
       </c>
+      <c r="H304" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9311,6 +10225,9 @@
       <c r="G305" t="n">
         <v>0.14</v>
       </c>
+      <c r="H305" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9340,6 +10257,9 @@
       <c r="G306" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H306" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9369,6 +10289,9 @@
       <c r="G307" t="n">
         <v>0.06</v>
       </c>
+      <c r="H307" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9398,6 +10321,9 @@
       <c r="G308" t="n">
         <v>0.02</v>
       </c>
+      <c r="H308" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9427,6 +10353,9 @@
       <c r="G309" t="n">
         <v>0.22</v>
       </c>
+      <c r="H309" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9456,6 +10385,9 @@
       <c r="G310" t="n">
         <v>0.3</v>
       </c>
+      <c r="H310" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9485,6 +10417,9 @@
       <c r="G311" t="n">
         <v>0.23</v>
       </c>
+      <c r="H311" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9514,6 +10449,9 @@
       <c r="G312" t="n">
         <v>0.16</v>
       </c>
+      <c r="H312" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9543,6 +10481,9 @@
       <c r="G313" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H313" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9572,6 +10513,9 @@
       <c r="G314" t="n">
         <v>0.04</v>
       </c>
+      <c r="H314" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9601,6 +10545,9 @@
       <c r="G315" t="n">
         <v>0.01</v>
       </c>
+      <c r="H315" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9630,6 +10577,9 @@
       <c r="G316" t="n">
         <v>0.19</v>
       </c>
+      <c r="H316" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9659,6 +10609,9 @@
       <c r="G317" t="n">
         <v>0.31</v>
       </c>
+      <c r="H317" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9688,6 +10641,9 @@
       <c r="G318" t="n">
         <v>0.23</v>
       </c>
+      <c r="H318" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9717,6 +10673,9 @@
       <c r="G319" t="n">
         <v>0.16</v>
       </c>
+      <c r="H319" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9746,6 +10705,9 @@
       <c r="G320" t="n">
         <v>0.06</v>
       </c>
+      <c r="H320" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9775,6 +10737,9 @@
       <c r="G321" t="n">
         <v>0.05</v>
       </c>
+      <c r="H321" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9804,6 +10769,9 @@
       <c r="G322" t="n">
         <v>0.01</v>
       </c>
+      <c r="H322" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9833,6 +10801,9 @@
       <c r="G323" t="n">
         <v>0.18</v>
       </c>
+      <c r="H323" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9862,6 +10833,9 @@
       <c r="G324" t="n">
         <v>0.32</v>
       </c>
+      <c r="H324" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9891,6 +10865,9 @@
       <c r="G325" t="n">
         <v>0.2</v>
       </c>
+      <c r="H325" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9920,6 +10897,9 @@
       <c r="G326" t="n">
         <v>0.1</v>
       </c>
+      <c r="H326" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9949,6 +10929,9 @@
       <c r="G327" t="n">
         <v>0.08</v>
       </c>
+      <c r="H327" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9978,6 +10961,9 @@
       <c r="G328" t="n">
         <v>0.03</v>
       </c>
+      <c r="H328" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10007,6 +10993,9 @@
       <c r="G329" t="n">
         <v>0.005</v>
       </c>
+      <c r="H329" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10036,6 +11025,9 @@
       <c r="G330" t="n">
         <v>0.265</v>
       </c>
+      <c r="H330" t="n">
+        <v>0.205</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10065,6 +11057,9 @@
       <c r="G331" t="n">
         <v>0.46</v>
       </c>
+      <c r="H331" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -10094,6 +11089,9 @@
       <c r="G332" t="n">
         <v>0.19</v>
       </c>
+      <c r="H332" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10123,6 +11121,9 @@
       <c r="G333" t="n">
         <v>0.12</v>
       </c>
+      <c r="H333" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10152,6 +11153,9 @@
       <c r="G334" t="n">
         <v>0.05</v>
       </c>
+      <c r="H334" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10181,6 +11185,9 @@
       <c r="G335" t="n">
         <v>0.02</v>
       </c>
+      <c r="H335" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -10210,6 +11217,9 @@
       <c r="G336" t="n">
         <v>0.015</v>
       </c>
+      <c r="H336" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -10239,6 +11249,9 @@
       <c r="G337" t="n">
         <v>0.145</v>
       </c>
+      <c r="H337" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -10268,6 +11281,9 @@
       <c r="G338" t="n">
         <v>0.24</v>
       </c>
+      <c r="H338" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -10297,6 +11313,9 @@
       <c r="G339" t="n">
         <v>0.21</v>
       </c>
+      <c r="H339" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -10326,6 +11345,9 @@
       <c r="G340" t="n">
         <v>0.16</v>
       </c>
+      <c r="H340" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -10355,6 +11377,9 @@
       <c r="G341" t="n">
         <v>0.09</v>
       </c>
+      <c r="H341" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10384,6 +11409,9 @@
       <c r="G342" t="n">
         <v>0.04</v>
       </c>
+      <c r="H342" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10413,6 +11441,9 @@
       <c r="G343" t="n">
         <v>0.02</v>
       </c>
+      <c r="H343" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10442,6 +11473,9 @@
       <c r="G344" t="n">
         <v>0.24</v>
       </c>
+      <c r="H344" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10471,6 +11505,9 @@
       <c r="G345" t="n">
         <v>0.35</v>
       </c>
+      <c r="H345" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10500,6 +11537,9 @@
       <c r="G346" t="n">
         <v>0.29</v>
       </c>
+      <c r="H346" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10529,6 +11569,9 @@
       <c r="G347" t="n">
         <v>0.21</v>
       </c>
+      <c r="H347" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10558,6 +11601,9 @@
       <c r="G348" t="n">
         <v>0.01</v>
       </c>
+      <c r="H348" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10587,6 +11633,9 @@
       <c r="G349" t="n">
         <v>0.03</v>
       </c>
+      <c r="H349" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10616,6 +11665,9 @@
       <c r="G350" t="n">
         <v>0.02</v>
       </c>
+      <c r="H350" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10645,6 +11697,9 @@
       <c r="G351" t="n">
         <v>0.09</v>
       </c>
+      <c r="H351" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10674,6 +11729,9 @@
       <c r="G352" t="n">
         <v>0.19</v>
       </c>
+      <c r="H352" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10703,6 +11761,9 @@
       <c r="G353" t="n">
         <v>0.19</v>
       </c>
+      <c r="H353" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10732,6 +11793,9 @@
       <c r="G354" t="n">
         <v>0.16</v>
       </c>
+      <c r="H354" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10761,6 +11825,9 @@
       <c r="G355" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H355" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10790,6 +11857,9 @@
       <c r="G356" t="n">
         <v>0.09</v>
       </c>
+      <c r="H356" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10819,6 +11889,9 @@
       <c r="G357" t="n">
         <v>0.015</v>
       </c>
+      <c r="H357" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10848,6 +11921,9 @@
       <c r="G358" t="n">
         <v>0.285</v>
       </c>
+      <c r="H358" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10877,6 +11953,9 @@
       <c r="G359" t="n">
         <v>0.26</v>
       </c>
+      <c r="H359" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10906,6 +11985,9 @@
       <c r="G360" t="n">
         <v>0.2</v>
       </c>
+      <c r="H360" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10935,6 +12017,9 @@
       <c r="G361" t="n">
         <v>0.14</v>
       </c>
+      <c r="H361" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10964,6 +12049,9 @@
       <c r="G362" t="n">
         <v>0.09</v>
       </c>
+      <c r="H362" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10993,6 +12081,9 @@
       <c r="G363" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H363" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -11022,6 +12113,9 @@
       <c r="G364" t="n">
         <v>0.005</v>
       </c>
+      <c r="H364" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -11051,6 +12145,9 @@
       <c r="G365" t="n">
         <v>0.235</v>
       </c>
+      <c r="H365" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -11080,6 +12177,9 @@
       <c r="G366" t="n">
         <v>0.35</v>
       </c>
+      <c r="H366" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -11109,6 +12209,9 @@
       <c r="G367" t="n">
         <v>0.21</v>
       </c>
+      <c r="H367" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -11138,6 +12241,9 @@
       <c r="G368" t="n">
         <v>0.15</v>
       </c>
+      <c r="H368" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -11167,6 +12273,9 @@
       <c r="G369" t="n">
         <v>0.09</v>
       </c>
+      <c r="H369" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -11196,6 +12305,9 @@
       <c r="G370" t="n">
         <v>0.01</v>
       </c>
+      <c r="H370" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -11225,6 +12337,9 @@
       <c r="G371" t="n">
         <v>0.03</v>
       </c>
+      <c r="H371" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -11254,6 +12369,9 @@
       <c r="G372" t="n">
         <v>0.16</v>
       </c>
+      <c r="H372" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -11283,6 +12401,9 @@
       <c r="G373" t="n">
         <v>0.23</v>
       </c>
+      <c r="H373" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -11312,6 +12433,9 @@
       <c r="G374" t="n">
         <v>0.22</v>
       </c>
+      <c r="H374" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -11341,6 +12465,9 @@
       <c r="G375" t="n">
         <v>0.15</v>
       </c>
+      <c r="H375" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -11370,6 +12497,9 @@
       <c r="G376" t="n">
         <v>0.06</v>
       </c>
+      <c r="H376" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -11399,6 +12529,9 @@
       <c r="G377" t="n">
         <v>0.04</v>
       </c>
+      <c r="H377" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -11428,6 +12561,9 @@
       <c r="G378" t="n">
         <v>0.02</v>
       </c>
+      <c r="H378" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -11457,6 +12593,9 @@
       <c r="G379" t="n">
         <v>0.28</v>
       </c>
+      <c r="H379" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11478,13 +12617,16 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F380" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G380" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="381">
@@ -11504,16 +12646,19 @@
         </is>
       </c>
       <c r="D381" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E381" t="n">
         <v>0.22</v>
       </c>
-      <c r="E381" t="n">
+      <c r="F381" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G381" t="n">
         <v>0.21</v>
       </c>
-      <c r="F381" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.22</v>
+      <c r="H381" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="382">
@@ -11544,6 +12689,9 @@
       <c r="G382" t="n">
         <v>0.21</v>
       </c>
+      <c r="H382" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11573,6 +12721,9 @@
       <c r="G383" t="n">
         <v>0.09</v>
       </c>
+      <c r="H383" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -11597,11 +12748,14 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F384" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G384" t="n">
         <v>0.05</v>
       </c>
+      <c r="H384" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11631,6 +12785,9 @@
       <c r="G385" t="n">
         <v>0.015</v>
       </c>
+      <c r="H385" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -11649,17 +12806,20 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E386" t="n">
         <v>0.38</v>
       </c>
       <c r="F386" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G386" t="n">
         <v>0.275</v>
       </c>
+      <c r="H386" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -11808,6 +12968,9 @@
       <c r="G394" t="n">
         <v>0.22</v>
       </c>
+      <c r="H394" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11837,6 +13000,9 @@
       <c r="G395" t="n">
         <v>0.16</v>
       </c>
+      <c r="H395" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11866,6 +13032,9 @@
       <c r="G396" t="n">
         <v>0.18</v>
       </c>
+      <c r="H396" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11895,6 +13064,9 @@
       <c r="G397" t="n">
         <v>0.08</v>
       </c>
+      <c r="H397" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11924,6 +13096,9 @@
       <c r="G398" t="n">
         <v>0.05</v>
       </c>
+      <c r="H398" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11953,6 +13128,9 @@
       <c r="G399" t="n">
         <v>0.01</v>
       </c>
+      <c r="H399" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11982,6 +13160,9 @@
       <c r="G400" t="n">
         <v>0.3</v>
       </c>
+      <c r="H400" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -12011,6 +13192,9 @@
       <c r="G401" t="n">
         <v>0.25</v>
       </c>
+      <c r="H401" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -12040,6 +13224,9 @@
       <c r="G402" t="n">
         <v>0.2</v>
       </c>
+      <c r="H402" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -12069,6 +13256,9 @@
       <c r="G403" t="n">
         <v>0.15</v>
       </c>
+      <c r="H403" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -12098,6 +13288,9 @@
       <c r="G404" t="n">
         <v>0.09</v>
       </c>
+      <c r="H404" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -12127,6 +13320,9 @@
       <c r="G405" t="n">
         <v>0.05</v>
       </c>
+      <c r="H405" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -12156,6 +13352,9 @@
       <c r="G406" t="n">
         <v>0.03</v>
       </c>
+      <c r="H406" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -12185,6 +13384,9 @@
       <c r="G407" t="n">
         <v>0.23</v>
       </c>
+      <c r="H407" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -12214,6 +13416,9 @@
       <c r="G408" t="n">
         <v>0.33</v>
       </c>
+      <c r="H408" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -12243,6 +13448,9 @@
       <c r="G409" t="n">
         <v>0.26</v>
       </c>
+      <c r="H409" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -12272,6 +13480,9 @@
       <c r="G410" t="n">
         <v>0.12</v>
       </c>
+      <c r="H410" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -12301,6 +13512,9 @@
       <c r="G411" t="n">
         <v>0.06</v>
       </c>
+      <c r="H411" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -12330,6 +13544,9 @@
       <c r="G412" t="n">
         <v>0.04</v>
       </c>
+      <c r="H412" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -12359,6 +13576,9 @@
       <c r="G413" t="n">
         <v>0.01</v>
       </c>
+      <c r="H413" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -12388,11 +13608,14 @@
       <c r="G414" t="n">
         <v>0.18</v>
       </c>
+      <c r="H414" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -12407,7 +13630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12446,6 +13669,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12470,6 +13698,9 @@
       <c r="F2" t="n">
         <v>1767</v>
       </c>
+      <c r="G2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12494,6 +13725,9 @@
       <c r="F3" t="n">
         <v>406</v>
       </c>
+      <c r="G3" t="n">
+        <v>412</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12518,6 +13752,9 @@
       <c r="F4" t="n">
         <v>1361</v>
       </c>
+      <c r="G4" t="n">
+        <v>1403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12542,6 +13779,9 @@
       <c r="F5" t="n">
         <v>442</v>
       </c>
+      <c r="G5" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12566,6 +13806,9 @@
       <c r="F6" t="n">
         <v>647</v>
       </c>
+      <c r="G6" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12590,6 +13833,9 @@
       <c r="F7" t="n">
         <v>678</v>
       </c>
+      <c r="G7" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12614,6 +13860,9 @@
       <c r="F8" t="n">
         <v>818</v>
       </c>
+      <c r="G8" t="n">
+        <v>838</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12638,6 +13887,9 @@
       <c r="F9" t="n">
         <v>606</v>
       </c>
+      <c r="G9" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12662,6 +13914,9 @@
       <c r="F10" t="n">
         <v>343</v>
       </c>
+      <c r="G10" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12686,6 +13941,9 @@
       <c r="F11" t="n">
         <v>427</v>
       </c>
+      <c r="G11" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12710,6 +13968,9 @@
       <c r="F12" t="n">
         <v>429</v>
       </c>
+      <c r="G12" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12734,6 +13995,9 @@
       <c r="F13" t="n">
         <v>234</v>
       </c>
+      <c r="G13" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12758,6 +14022,9 @@
       <c r="F14" t="n">
         <v>391</v>
       </c>
+      <c r="G14" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12782,6 +14049,9 @@
       <c r="F15" t="n">
         <v>177</v>
       </c>
+      <c r="G15" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12806,6 +14076,9 @@
       <c r="F16" t="n">
         <v>109</v>
       </c>
+      <c r="G16" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12830,6 +14103,9 @@
       <c r="F17" t="n">
         <v>567</v>
       </c>
+      <c r="G17" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12854,6 +14130,9 @@
       <c r="F18" t="n">
         <v>126</v>
       </c>
+      <c r="G18" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12878,6 +14157,9 @@
       <c r="F19" t="n">
         <v>80</v>
       </c>
+      <c r="G19" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12902,6 +14184,9 @@
       <c r="F20" t="n">
         <v>221</v>
       </c>
+      <c r="G20" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12926,6 +14211,9 @@
       <c r="F21" t="n">
         <v>817</v>
       </c>
+      <c r="G21" t="n">
+        <v>834</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12950,6 +14238,9 @@
       <c r="F22" t="n">
         <v>143</v>
       </c>
+      <c r="G22" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12974,6 +14265,9 @@
       <c r="F23" t="n">
         <v>112</v>
       </c>
+      <c r="G23" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12998,6 +14292,9 @@
       <c r="F24" t="n">
         <v>695</v>
       </c>
+      <c r="G24" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13022,6 +14319,9 @@
       <c r="F25" t="n">
         <v>862</v>
       </c>
+      <c r="G25" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13046,6 +14346,9 @@
       <c r="F26" t="n">
         <v>905</v>
       </c>
+      <c r="G26" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13070,6 +14373,9 @@
       <c r="F27" t="n">
         <v>228</v>
       </c>
+      <c r="G27" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -13094,6 +14400,9 @@
       <c r="F28" t="n">
         <v>331</v>
       </c>
+      <c r="G28" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -13118,6 +14427,9 @@
       <c r="F29" t="n">
         <v>304</v>
       </c>
+      <c r="G29" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -13142,6 +14454,9 @@
       <c r="F30" t="n">
         <v>215</v>
       </c>
+      <c r="G30" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13166,6 +14481,9 @@
       <c r="F31" t="n">
         <v>316</v>
       </c>
+      <c r="G31" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13190,6 +14508,9 @@
       <c r="F32" t="n">
         <v>373</v>
       </c>
+      <c r="G32" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13214,6 +14535,9 @@
       <c r="F33" t="n">
         <v>916</v>
       </c>
+      <c r="G33" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13238,6 +14562,9 @@
       <c r="F34" t="n">
         <v>413</v>
       </c>
+      <c r="G34" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13262,6 +14589,9 @@
       <c r="F35" t="n">
         <v>205</v>
       </c>
+      <c r="G35" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13286,6 +14616,9 @@
       <c r="F36" t="n">
         <v>233</v>
       </c>
+      <c r="G36" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13310,6 +14643,9 @@
       <c r="F37" t="n">
         <v>574</v>
       </c>
+      <c r="G37" t="n">
+        <v>604</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13334,6 +14670,9 @@
       <c r="F38" t="n">
         <v>266</v>
       </c>
+      <c r="G38" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13358,6 +14697,9 @@
       <c r="F39" t="n">
         <v>119</v>
       </c>
+      <c r="G39" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13382,6 +14724,9 @@
       <c r="F40" t="n">
         <v>131</v>
       </c>
+      <c r="G40" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13406,6 +14751,9 @@
       <c r="F41" t="n">
         <v>342</v>
       </c>
+      <c r="G41" t="n">
+        <v>348</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13430,6 +14778,9 @@
       <c r="F42" t="n">
         <v>146</v>
       </c>
+      <c r="G42" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13454,6 +14805,9 @@
       <c r="F43" t="n">
         <v>87</v>
       </c>
+      <c r="G43" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13478,6 +14832,9 @@
       <c r="F44" t="n">
         <v>102</v>
       </c>
+      <c r="G44" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13502,6 +14859,9 @@
       <c r="F45" t="n">
         <v>190</v>
       </c>
+      <c r="G45" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13526,6 +14886,9 @@
       <c r="F46" t="n">
         <v>640</v>
       </c>
+      <c r="G46" t="n">
+        <v>630</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13550,6 +14913,9 @@
       <c r="F47" t="n">
         <v>596</v>
       </c>
+      <c r="G47" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13574,6 +14940,9 @@
       <c r="F48" t="n">
         <v>244</v>
       </c>
+      <c r="G48" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13598,6 +14967,9 @@
       <c r="F49" t="n">
         <v>277</v>
       </c>
+      <c r="G49" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13622,6 +14994,9 @@
       <c r="F50" t="n">
         <v>228</v>
       </c>
+      <c r="G50" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13646,6 +15021,9 @@
       <c r="F51" t="n">
         <v>334</v>
       </c>
+      <c r="G51" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13670,6 +15048,9 @@
       <c r="F52" t="n">
         <v>243</v>
       </c>
+      <c r="G52" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13694,6 +15075,9 @@
       <c r="F53" t="n">
         <v>444</v>
       </c>
+      <c r="G53" t="n">
+        <v>487</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13718,6 +15102,9 @@
       <c r="F54" t="n">
         <v>579</v>
       </c>
+      <c r="G54" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13742,6 +15129,9 @@
       <c r="F55" t="n">
         <v>447</v>
       </c>
+      <c r="G55" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13766,6 +15156,9 @@
       <c r="F56" t="n">
         <v>741</v>
       </c>
+      <c r="G56" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13779,16 +15172,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="D57" t="n">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="E57" t="n">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="F57" t="n">
-        <v>366</v>
+        <v>395</v>
+      </c>
+      <c r="G57" t="n">
+        <v>418</v>
       </c>
     </row>
     <row r="58">
@@ -13803,16 +15199,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1489</v>
+        <v>1456</v>
       </c>
       <c r="D58" t="n">
-        <v>1370</v>
+        <v>1340</v>
       </c>
       <c r="E58" t="n">
-        <v>1437</v>
+        <v>1410</v>
       </c>
       <c r="F58" t="n">
-        <v>1401</v>
+        <v>1372</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1397</v>
       </c>
     </row>
     <row r="59">
@@ -13838,6 +15237,9 @@
       <c r="F59" t="n">
         <v>422</v>
       </c>
+      <c r="G59" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13862,6 +15264,9 @@
       <c r="F60" t="n">
         <v>723</v>
       </c>
+      <c r="G60" t="n">
+        <v>759</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13886,11 +15291,14 @@
       <c r="F61" t="n">
         <v>622</v>
       </c>
+      <c r="G61" t="n">
+        <v>562</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -13898,6 +15306,7 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07c_preockovani.xlsx
+++ b/ZBP_07c_preockovani.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -12617,13 +12617,13 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F380" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G380" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H380" t="n">
         <v>0.27</v>
@@ -12646,16 +12646,16 @@
         </is>
       </c>
       <c r="D381" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E381" t="n">
         <v>0.23</v>
       </c>
-      <c r="E381" t="n">
+      <c r="F381" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G381" t="n">
         <v>0.22</v>
-      </c>
-      <c r="F381" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.21</v>
       </c>
       <c r="H381" t="n">
         <v>0.09</v>
@@ -12678,13 +12678,13 @@
         </is>
       </c>
       <c r="D382" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F382" t="n">
         <v>0.17</v>
-      </c>
-      <c r="E382" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F382" t="n">
-        <v>0.18</v>
       </c>
       <c r="G382" t="n">
         <v>0.21</v>
@@ -12710,13 +12710,13 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E383" t="n">
         <v>0.12</v>
       </c>
       <c r="F383" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G383" t="n">
         <v>0.09</v>
@@ -12745,10 +12745,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E384" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F384" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="F384" t="n">
-        <v>0.06</v>
       </c>
       <c r="G384" t="n">
         <v>0.05</v>
@@ -12774,10 +12774,10 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E385" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F385" t="n">
         <v>0.02</v>
@@ -12806,10 +12806,10 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="E386" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="F386" t="n">
         <v>0.31</v>
@@ -12837,6 +12837,21 @@
           <t>Již očkován/a třetí dávkou</t>
         </is>
       </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -12854,6 +12869,21 @@
           <t>Rozhodně ano</t>
         </is>
       </c>
+      <c r="D388" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -12871,6 +12901,21 @@
           <t>Spíše ano</t>
         </is>
       </c>
+      <c r="D389" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -12888,6 +12933,21 @@
           <t>Nevím</t>
         </is>
       </c>
+      <c r="D390" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -12905,6 +12965,21 @@
           <t>Spíše ne</t>
         </is>
       </c>
+      <c r="D391" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -12922,6 +12997,21 @@
           <t>Rozhodně ne</t>
         </is>
       </c>
+      <c r="D392" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -12938,6 +13028,21 @@
         <is>
           <t>Není očkován/a ani jednou dávkou</t>
         </is>
+      </c>
+      <c r="D393" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="394">
@@ -13671,7 +13776,7 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -15172,16 +15277,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>399</v>
+        <v>262</v>
       </c>
       <c r="D57" t="n">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="E57" t="n">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="F57" t="n">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="G57" t="n">
         <v>418</v>
@@ -15199,16 +15304,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1456</v>
+        <v>1593</v>
       </c>
       <c r="D58" t="n">
-        <v>1340</v>
+        <v>1436</v>
       </c>
       <c r="E58" t="n">
-        <v>1410</v>
+        <v>1468</v>
       </c>
       <c r="F58" t="n">
-        <v>1372</v>
+        <v>1401</v>
       </c>
       <c r="G58" t="n">
         <v>1397</v>

--- a/ZBP_07c_preockovani.xlsx
+++ b/ZBP_07c_preockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H415"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +537,9 @@
       <c r="H2" t="n">
         <v>0.4</v>
       </c>
+      <c r="I2" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +572,9 @@
       <c r="H3" t="n">
         <v>0.09</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,6 +607,9 @@
       <c r="H4" t="n">
         <v>0.12</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,6 +642,9 @@
       <c r="H5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -660,6 +677,9 @@
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -692,6 +712,9 @@
       <c r="H7" t="n">
         <v>0.03</v>
       </c>
+      <c r="I7" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -724,6 +747,9 @@
       <c r="H8" t="n">
         <v>0.23</v>
       </c>
+      <c r="I8" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -756,6 +782,9 @@
       <c r="H9" t="n">
         <v>0.52</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -786,7 +815,10 @@
         <v>0.28</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
@@ -820,6 +852,9 @@
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
+      <c r="I11" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -852,6 +887,9 @@
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
+      <c r="I12" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -884,6 +922,9 @@
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
+      <c r="I13" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -916,6 +957,9 @@
       <c r="H14" t="n">
         <v>0.04</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -946,7 +990,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
@@ -980,6 +1027,9 @@
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1012,6 +1062,9 @@
       <c r="H17" t="n">
         <v>0.15</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1044,6 +1097,9 @@
       <c r="H18" t="n">
         <v>0.14</v>
       </c>
+      <c r="I18" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1074,7 +1130,10 @@
         <v>0.11</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
@@ -1108,6 +1167,9 @@
       <c r="H20" t="n">
         <v>0.1</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1140,6 +1202,9 @@
       <c r="H21" t="n">
         <v>0.05</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1170,7 +1235,10 @@
         <v>0.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
@@ -1204,6 +1272,9 @@
       <c r="H23" t="n">
         <v>0.32</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1236,6 +1307,9 @@
       <c r="H24" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I24" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1268,6 +1342,9 @@
       <c r="H25" t="n">
         <v>0.15</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1300,6 +1377,9 @@
       <c r="H26" t="n">
         <v>0.09</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1332,6 +1412,9 @@
       <c r="H27" t="n">
         <v>0.06</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1364,6 +1447,9 @@
       <c r="H28" t="n">
         <v>0.04</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1396,6 +1482,9 @@
       <c r="H29" t="n">
         <v>0.27</v>
       </c>
+      <c r="I29" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1428,6 +1517,9 @@
       <c r="H30" t="n">
         <v>0.62</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1460,6 +1552,9 @@
       <c r="H31" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I31" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1492,6 +1587,9 @@
       <c r="H32" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1524,6 +1622,9 @@
       <c r="H33" t="n">
         <v>0.04</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1556,6 +1657,9 @@
       <c r="H34" t="n">
         <v>0.03</v>
       </c>
+      <c r="I34" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1588,6 +1692,9 @@
       <c r="H35" t="n">
         <v>0.015</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1620,6 +1727,9 @@
       <c r="H36" t="n">
         <v>0.155</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1650,7 +1760,10 @@
         <v>0.24</v>
       </c>
       <c r="H37" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="38">
@@ -1684,6 +1797,9 @@
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1716,6 +1832,9 @@
       <c r="H39" t="n">
         <v>0.11</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1748,6 +1867,9 @@
       <c r="H40" t="n">
         <v>0.08</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1780,6 +1902,9 @@
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1812,6 +1937,9 @@
       <c r="H42" t="n">
         <v>0.04</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1842,7 +1970,10 @@
         <v>0.29</v>
       </c>
       <c r="H43" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="44">
@@ -1874,7 +2005,10 @@
         <v>0.27</v>
       </c>
       <c r="H44" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="45">
@@ -1908,6 +2042,9 @@
       <c r="H45" t="n">
         <v>0.09</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1940,6 +2077,9 @@
       <c r="H46" t="n">
         <v>0.11</v>
       </c>
+      <c r="I46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1972,6 +2112,9 @@
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
+      <c r="I47" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2004,6 +2147,9 @@
       <c r="H48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I48" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2036,6 +2182,9 @@
       <c r="H49" t="n">
         <v>0.02</v>
       </c>
+      <c r="I49" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2066,6 +2215,9 @@
         <v>0.23</v>
       </c>
       <c r="H50" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2100,6 +2252,9 @@
       <c r="H51" t="n">
         <v>0.46</v>
       </c>
+      <c r="I51" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2132,6 +2287,9 @@
       <c r="H52" t="n">
         <v>0.08</v>
       </c>
+      <c r="I52" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2164,6 +2322,9 @@
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
+      <c r="I53" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2196,6 +2357,9 @@
       <c r="H54" t="n">
         <v>0.08</v>
       </c>
+      <c r="I54" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2228,6 +2392,9 @@
       <c r="H55" t="n">
         <v>0.08</v>
       </c>
+      <c r="I55" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2260,6 +2427,9 @@
       <c r="H56" t="n">
         <v>0.04</v>
       </c>
+      <c r="I56" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2292,6 +2462,9 @@
       <c r="H57" t="n">
         <v>0.11</v>
       </c>
+      <c r="I57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2324,6 +2497,9 @@
       <c r="H58" t="n">
         <v>0.2</v>
       </c>
+      <c r="I58" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2354,7 +2530,10 @@
         <v>0.19</v>
       </c>
       <c r="H59" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -2386,7 +2565,10 @@
         <v>0.15</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="61">
@@ -2418,7 +2600,10 @@
         <v>0.11</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="62">
@@ -2452,6 +2637,9 @@
       <c r="H62" t="n">
         <v>0.06</v>
       </c>
+      <c r="I62" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2484,6 +2672,9 @@
       <c r="H63" t="n">
         <v>0.06</v>
       </c>
+      <c r="I63" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2514,7 +2705,10 @@
         <v>0.36</v>
       </c>
       <c r="H64" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="65">
@@ -2548,6 +2742,9 @@
       <c r="H65" t="n">
         <v>0.31</v>
       </c>
+      <c r="I65" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2578,7 +2775,10 @@
         <v>0.24</v>
       </c>
       <c r="H66" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="67">
@@ -2610,7 +2810,10 @@
         <v>0.17</v>
       </c>
       <c r="H67" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="68">
@@ -2642,6 +2845,9 @@
         <v>0.11</v>
       </c>
       <c r="H68" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I68" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -2674,7 +2880,10 @@
         <v>0.04</v>
       </c>
       <c r="H69" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="70">
@@ -2708,6 +2917,9 @@
       <c r="H70" t="n">
         <v>0.02</v>
       </c>
+      <c r="I70" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2738,7 +2950,10 @@
         <v>0.275</v>
       </c>
       <c r="H71" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="72">
@@ -2772,6 +2987,9 @@
       <c r="H72" t="n">
         <v>0.31</v>
       </c>
+      <c r="I72" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2804,6 +3022,9 @@
       <c r="H73" t="n">
         <v>0.1</v>
       </c>
+      <c r="I73" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2836,6 +3057,9 @@
       <c r="H74" t="n">
         <v>0.2</v>
       </c>
+      <c r="I74" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2868,6 +3092,9 @@
       <c r="H75" t="n">
         <v>0.11</v>
       </c>
+      <c r="I75" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2900,6 +3127,9 @@
       <c r="H76" t="n">
         <v>0.1</v>
       </c>
+      <c r="I76" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2932,6 +3162,9 @@
       <c r="H77" t="n">
         <v>0.05</v>
       </c>
+      <c r="I77" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2964,6 +3197,9 @@
       <c r="H78" t="n">
         <v>0.13</v>
       </c>
+      <c r="I78" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2994,7 +3230,10 @@
         <v>0.42</v>
       </c>
       <c r="H79" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="80">
@@ -3028,6 +3267,9 @@
       <c r="H80" t="n">
         <v>0.08</v>
       </c>
+      <c r="I80" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3060,6 +3302,9 @@
       <c r="H81" t="n">
         <v>0.09</v>
       </c>
+      <c r="I81" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3090,7 +3335,10 @@
         <v>0.04</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -3124,6 +3372,9 @@
       <c r="H83" t="n">
         <v>0.03</v>
       </c>
+      <c r="I83" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3156,6 +3407,9 @@
       <c r="H84" t="n">
         <v>0.015</v>
       </c>
+      <c r="I84" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3188,6 +3442,9 @@
       <c r="H85" t="n">
         <v>0.205</v>
       </c>
+      <c r="I85" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3220,6 +3477,9 @@
       <c r="H86" t="n">
         <v>0.73</v>
       </c>
+      <c r="I86" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3250,7 +3510,10 @@
         <v>0.24</v>
       </c>
       <c r="H87" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="88">
@@ -3282,7 +3545,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="89">
@@ -3316,6 +3582,9 @@
       <c r="H89" t="n">
         <v>0.015</v>
       </c>
+      <c r="I89" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3348,6 +3617,9 @@
       <c r="H90" t="n">
         <v>0.03</v>
       </c>
+      <c r="I90" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3380,6 +3652,9 @@
       <c r="H91" t="n">
         <v>0.01</v>
       </c>
+      <c r="I91" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3410,7 +3685,10 @@
         <v>0.075</v>
       </c>
       <c r="H92" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="93">
@@ -3444,6 +3722,9 @@
       <c r="H93" t="n">
         <v>0.79</v>
       </c>
+      <c r="I93" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3476,6 +3757,9 @@
       <c r="H94" t="n">
         <v>0.05</v>
       </c>
+      <c r="I94" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3508,6 +3792,9 @@
       <c r="H95" t="n">
         <v>0.03</v>
       </c>
+      <c r="I95" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3540,6 +3827,9 @@
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
+      <c r="I96" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3572,6 +3862,9 @@
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
+      <c r="I97" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3604,6 +3897,9 @@
       <c r="H98" t="n">
         <v>0.01</v>
       </c>
+      <c r="I98" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3636,6 +3932,9 @@
       <c r="H99" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3668,6 +3967,9 @@
       <c r="H100" t="n">
         <v>0.33</v>
       </c>
+      <c r="I100" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3700,6 +4002,9 @@
       <c r="H101" t="n">
         <v>0.08</v>
       </c>
+      <c r="I101" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3732,6 +4037,9 @@
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
+      <c r="I102" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3762,7 +4070,10 @@
         <v>0.11</v>
       </c>
       <c r="H103" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="104">
@@ -3794,7 +4105,10 @@
         <v>0.05</v>
       </c>
       <c r="H104" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="105">
@@ -3828,6 +4142,9 @@
       <c r="H105" t="n">
         <v>0.05</v>
       </c>
+      <c r="I105" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3858,7 +4175,10 @@
         <v>0.23</v>
       </c>
       <c r="H106" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="107">
@@ -3890,7 +4210,10 @@
         <v>0.31</v>
       </c>
       <c r="H107" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="108">
@@ -3924,6 +4247,9 @@
       <c r="H108" t="n">
         <v>0.03</v>
       </c>
+      <c r="I108" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3956,6 +4282,9 @@
       <c r="H109" t="n">
         <v>0.06</v>
       </c>
+      <c r="I109" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3986,7 +4315,10 @@
         <v>0.09</v>
       </c>
       <c r="H110" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="111">
@@ -4020,6 +4352,9 @@
       <c r="H111" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I111" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4050,7 +4385,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="113">
@@ -4082,6 +4420,9 @@
         <v>0.165</v>
       </c>
       <c r="H113" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I113" t="n">
         <v>0.135</v>
       </c>
     </row>
@@ -4116,6 +4457,9 @@
       <c r="H114" t="n">
         <v>0.39</v>
       </c>
+      <c r="I114" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4148,6 +4492,9 @@
       <c r="H115" t="n">
         <v>0.13</v>
       </c>
+      <c r="I115" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4180,6 +4527,9 @@
       <c r="H116" t="n">
         <v>0.09</v>
       </c>
+      <c r="I116" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4212,6 +4562,9 @@
       <c r="H117" t="n">
         <v>0.12</v>
       </c>
+      <c r="I117" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4244,6 +4597,9 @@
       <c r="H118" t="n">
         <v>0.015</v>
       </c>
+      <c r="I118" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4276,6 +4632,9 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
+      <c r="I119" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4308,6 +4667,9 @@
       <c r="H120" t="n">
         <v>0.255</v>
       </c>
+      <c r="I120" t="n">
+        <v>0.235</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4340,6 +4702,9 @@
       <c r="H121" t="n">
         <v>0.31</v>
       </c>
+      <c r="I121" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4372,6 +4737,9 @@
       <c r="H122" t="n">
         <v>0.05</v>
       </c>
+      <c r="I122" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4404,6 +4772,9 @@
       <c r="H123" t="n">
         <v>0.2</v>
       </c>
+      <c r="I123" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4436,6 +4807,9 @@
       <c r="H124" t="n">
         <v>0.04</v>
       </c>
+      <c r="I124" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4468,6 +4842,9 @@
       <c r="H125" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I125" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4500,6 +4877,9 @@
       <c r="H126" t="n">
         <v>0.005</v>
       </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4532,6 +4912,9 @@
       <c r="H127" t="n">
         <v>0.325</v>
       </c>
+      <c r="I127" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4564,6 +4947,9 @@
       <c r="H128" t="n">
         <v>0.33</v>
       </c>
+      <c r="I128" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4596,6 +4982,9 @@
       <c r="H129" t="n">
         <v>0.09</v>
       </c>
+      <c r="I129" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4628,6 +5017,9 @@
       <c r="H130" t="n">
         <v>0.16</v>
       </c>
+      <c r="I130" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4660,6 +5052,9 @@
       <c r="H131" t="n">
         <v>0.08</v>
       </c>
+      <c r="I131" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4692,6 +5087,9 @@
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I132" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4724,6 +5122,9 @@
       <c r="H133" t="n">
         <v>0.03</v>
       </c>
+      <c r="I133" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4756,6 +5157,9 @@
       <c r="H134" t="n">
         <v>0.24</v>
       </c>
+      <c r="I134" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4786,7 +5190,10 @@
         <v>0.3</v>
       </c>
       <c r="H135" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="136">
@@ -4820,6 +5227,9 @@
       <c r="H136" t="n">
         <v>0.02</v>
       </c>
+      <c r="I136" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4852,6 +5262,9 @@
       <c r="H137" t="n">
         <v>0.03</v>
       </c>
+      <c r="I137" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4882,7 +5295,10 @@
         <v>0.08</v>
       </c>
       <c r="H138" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="139">
@@ -4916,6 +5332,9 @@
       <c r="H139" t="n">
         <v>0.06</v>
       </c>
+      <c r="I139" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4948,6 +5367,9 @@
       <c r="H140" t="n">
         <v>0.06</v>
       </c>
+      <c r="I140" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4978,7 +5400,10 @@
         <v>0.26</v>
       </c>
       <c r="H141" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="142">
@@ -5010,7 +5435,10 @@
         <v>0.33</v>
       </c>
       <c r="H142" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="143">
@@ -5044,6 +5472,9 @@
       <c r="H143" t="n">
         <v>0.04</v>
       </c>
+      <c r="I143" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5076,6 +5507,9 @@
       <c r="H144" t="n">
         <v>0.1</v>
       </c>
+      <c r="I144" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5108,6 +5542,9 @@
       <c r="H145" t="n">
         <v>0.09</v>
       </c>
+      <c r="I145" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5138,7 +5575,10 @@
         <v>0.005</v>
       </c>
       <c r="H146" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="147">
@@ -5172,6 +5612,9 @@
       <c r="H147" t="n">
         <v>0.04</v>
       </c>
+      <c r="I147" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5202,7 +5645,10 @@
         <v>0.225</v>
       </c>
       <c r="H148" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.165</v>
       </c>
     </row>
     <row r="149">
@@ -5236,6 +5682,9 @@
       <c r="H149" t="n">
         <v>0.47</v>
       </c>
+      <c r="I149" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5268,6 +5717,9 @@
       <c r="H150" t="n">
         <v>0.11</v>
       </c>
+      <c r="I150" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5300,6 +5752,9 @@
       <c r="H151" t="n">
         <v>0.09</v>
       </c>
+      <c r="I151" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5332,6 +5787,9 @@
       <c r="H152" t="n">
         <v>0.06</v>
       </c>
+      <c r="I152" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5364,6 +5822,9 @@
       <c r="H153" t="n">
         <v>0.04</v>
       </c>
+      <c r="I153" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5394,7 +5855,10 @@
         <v>0.02</v>
       </c>
       <c r="H154" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="155">
@@ -5426,7 +5890,10 @@
         <v>0.22</v>
       </c>
       <c r="H155" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="156">
@@ -5460,6 +5927,9 @@
       <c r="H156" t="n">
         <v>0.43</v>
       </c>
+      <c r="I156" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5492,6 +5962,9 @@
       <c r="H157" t="n">
         <v>0.1</v>
       </c>
+      <c r="I157" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5524,6 +5997,9 @@
       <c r="H158" t="n">
         <v>0.13</v>
       </c>
+      <c r="I158" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5556,6 +6032,9 @@
       <c r="H159" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I159" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5588,6 +6067,9 @@
       <c r="H160" t="n">
         <v>0.05</v>
       </c>
+      <c r="I160" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5618,7 +6100,10 @@
         <v>0.015</v>
       </c>
       <c r="H161" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="162">
@@ -5650,7 +6135,10 @@
         <v>0.205</v>
       </c>
       <c r="H162" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="163">
@@ -5682,7 +6170,10 @@
         <v>0.24</v>
       </c>
       <c r="H163" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="164">
@@ -5716,6 +6207,9 @@
       <c r="H164" t="n">
         <v>0.08</v>
       </c>
+      <c r="I164" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5746,7 +6240,10 @@
         <v>0.14</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="166">
@@ -5778,6 +6275,9 @@
         <v>0.08</v>
       </c>
       <c r="H166" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I166" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -5812,6 +6312,9 @@
       <c r="H167" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I167" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5844,6 +6347,9 @@
       <c r="H168" t="n">
         <v>0.04</v>
       </c>
+      <c r="I168" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5874,7 +6380,10 @@
         <v>0.25</v>
       </c>
       <c r="H169" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="170">
@@ -5908,6 +6417,9 @@
       <c r="H170" t="n">
         <v>0.22</v>
       </c>
+      <c r="I170" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5940,6 +6452,9 @@
       <c r="H171" t="n">
         <v>0.17</v>
       </c>
+      <c r="I171" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5972,6 +6487,9 @@
       <c r="H172" t="n">
         <v>0.17</v>
       </c>
+      <c r="I172" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6004,6 +6522,9 @@
       <c r="H173" t="n">
         <v>0.09</v>
       </c>
+      <c r="I173" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6036,6 +6557,9 @@
       <c r="H174" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I174" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6068,6 +6592,9 @@
       <c r="H175" t="n">
         <v>0.02</v>
       </c>
+      <c r="I175" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6100,6 +6627,9 @@
       <c r="H176" t="n">
         <v>0.26</v>
       </c>
+      <c r="I176" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6130,7 +6660,10 @@
         <v>0.17</v>
       </c>
       <c r="H177" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="178">
@@ -6164,6 +6697,9 @@
       <c r="H178" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I178" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6194,7 +6730,10 @@
         <v>0.22</v>
       </c>
       <c r="H179" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="180">
@@ -6228,6 +6767,9 @@
       <c r="H180" t="n">
         <v>0.1</v>
       </c>
+      <c r="I180" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6258,7 +6800,10 @@
         <v>0.03</v>
       </c>
       <c r="H181" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="182">
@@ -6290,7 +6835,10 @@
         <v>0.02</v>
       </c>
       <c r="H182" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="183">
@@ -6324,6 +6872,9 @@
       <c r="H183" t="n">
         <v>0.24</v>
       </c>
+      <c r="I183" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6356,6 +6907,9 @@
       <c r="H184" t="n">
         <v>0.7</v>
       </c>
+      <c r="I184" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6388,6 +6942,9 @@
       <c r="H185" t="n">
         <v>0.08</v>
       </c>
+      <c r="I185" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6418,7 +6975,10 @@
         <v>0.05</v>
       </c>
       <c r="H186" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="187">
@@ -6452,6 +7012,9 @@
       <c r="H187" t="n">
         <v>0.02</v>
       </c>
+      <c r="I187" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6484,6 +7047,9 @@
       <c r="H188" t="n">
         <v>0.02</v>
       </c>
+      <c r="I188" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6516,6 +7082,9 @@
       <c r="H189" t="n">
         <v>0.005</v>
       </c>
+      <c r="I189" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6546,7 +7115,10 @@
         <v>0.115</v>
       </c>
       <c r="H190" t="n">
-        <v>0.105</v>
+        <v>0.115</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="191">
@@ -6580,6 +7152,9 @@
       <c r="H191" t="n">
         <v>0.15</v>
       </c>
+      <c r="I191" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6612,6 +7187,9 @@
       <c r="H192" t="n">
         <v>0.13</v>
       </c>
+      <c r="I192" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6644,6 +7222,9 @@
       <c r="H193" t="n">
         <v>0.1</v>
       </c>
+      <c r="I193" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6674,7 +7255,10 @@
         <v>0.12</v>
       </c>
       <c r="H194" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="195">
@@ -6706,7 +7290,10 @@
         <v>0.08</v>
       </c>
       <c r="H195" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="196">
@@ -6740,6 +7327,9 @@
       <c r="H196" t="n">
         <v>0.08</v>
       </c>
+      <c r="I196" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6772,6 +7362,9 @@
       <c r="H197" t="n">
         <v>0.3</v>
       </c>
+      <c r="I197" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6804,6 +7397,9 @@
       <c r="H198" t="n">
         <v>0.31</v>
       </c>
+      <c r="I198" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6834,7 +7430,10 @@
         <v>0.23</v>
       </c>
       <c r="H199" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="200">
@@ -6866,7 +7465,10 @@
         <v>0.14</v>
       </c>
       <c r="H200" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="201">
@@ -6898,6 +7500,9 @@
         <v>0.11</v>
       </c>
       <c r="H201" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I201" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -6932,6 +7537,9 @@
       <c r="H202" t="n">
         <v>0.06</v>
       </c>
+      <c r="I202" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6964,6 +7572,9 @@
       <c r="H203" t="n">
         <v>0.05</v>
       </c>
+      <c r="I203" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6994,7 +7605,10 @@
         <v>0.28</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="205">
@@ -7026,7 +7640,10 @@
         <v>0.44</v>
       </c>
       <c r="H205" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="206">
@@ -7060,6 +7677,9 @@
       <c r="H206" t="n">
         <v>0.06</v>
       </c>
+      <c r="I206" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7092,6 +7712,9 @@
       <c r="H207" t="n">
         <v>0.08</v>
       </c>
+      <c r="I207" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7124,6 +7747,9 @@
       <c r="H208" t="n">
         <v>0.06</v>
       </c>
+      <c r="I208" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7156,6 +7782,9 @@
       <c r="H209" t="n">
         <v>0.04</v>
       </c>
+      <c r="I209" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7188,6 +7817,9 @@
       <c r="H210" t="n">
         <v>0.02</v>
       </c>
+      <c r="I210" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7218,7 +7850,10 @@
         <v>0.2</v>
       </c>
       <c r="H211" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="212">
@@ -7250,7 +7885,10 @@
         <v>0.26</v>
       </c>
       <c r="H212" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="213">
@@ -7282,7 +7920,10 @@
         <v>0.2</v>
       </c>
       <c r="H213" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="214">
@@ -7316,6 +7957,9 @@
       <c r="H214" t="n">
         <v>0.11</v>
       </c>
+      <c r="I214" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7348,6 +7992,9 @@
       <c r="H215" t="n">
         <v>0.06</v>
       </c>
+      <c r="I215" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7380,6 +8027,9 @@
       <c r="H216" t="n">
         <v>0.06</v>
       </c>
+      <c r="I216" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7412,6 +8062,9 @@
       <c r="H217" t="n">
         <v>0.03</v>
       </c>
+      <c r="I217" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7444,6 +8097,9 @@
       <c r="H218" t="n">
         <v>0.25</v>
       </c>
+      <c r="I218" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7474,7 +8130,10 @@
         <v>0.21</v>
       </c>
       <c r="H219" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="220">
@@ -7508,6 +8167,9 @@
       <c r="H220" t="n">
         <v>0.08</v>
       </c>
+      <c r="I220" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7538,7 +8200,10 @@
         <v>0.16</v>
       </c>
       <c r="H221" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="222">
@@ -7572,6 +8237,9 @@
       <c r="H222" t="n">
         <v>0.1</v>
       </c>
+      <c r="I222" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7604,6 +8272,9 @@
       <c r="H223" t="n">
         <v>0.06</v>
       </c>
+      <c r="I223" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7636,6 +8307,9 @@
       <c r="H224" t="n">
         <v>0.04</v>
       </c>
+      <c r="I224" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7666,6 +8340,9 @@
         <v>0.23</v>
       </c>
       <c r="H225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I225" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -7700,6 +8377,9 @@
       <c r="H226" t="n">
         <v>0.33</v>
       </c>
+      <c r="I226" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7730,6 +8410,9 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I227" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -7764,6 +8447,9 @@
       <c r="H228" t="n">
         <v>0.1</v>
       </c>
+      <c r="I228" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7796,6 +8482,9 @@
       <c r="H229" t="n">
         <v>0.08</v>
       </c>
+      <c r="I229" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7828,6 +8517,9 @@
       <c r="H230" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I230" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7860,6 +8552,9 @@
       <c r="H231" t="n">
         <v>0.05</v>
       </c>
+      <c r="I231" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7890,7 +8585,10 @@
         <v>0.335</v>
       </c>
       <c r="H232" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="233">
@@ -7924,6 +8622,9 @@
       <c r="H233" t="n">
         <v>0.61</v>
       </c>
+      <c r="I233" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7956,6 +8657,9 @@
       <c r="H234" t="n">
         <v>0.04</v>
       </c>
+      <c r="I234" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7988,6 +8692,9 @@
       <c r="H235" t="n">
         <v>0.11</v>
       </c>
+      <c r="I235" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8020,6 +8727,9 @@
       <c r="H236" t="n">
         <v>0.06</v>
       </c>
+      <c r="I236" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8052,6 +8762,9 @@
       <c r="H237" t="n">
         <v>0.04</v>
       </c>
+      <c r="I237" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8084,6 +8797,9 @@
       <c r="H238" t="n">
         <v>0.01</v>
       </c>
+      <c r="I238" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8116,6 +8832,9 @@
       <c r="H239" t="n">
         <v>0.13</v>
       </c>
+      <c r="I239" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8146,7 +8865,10 @@
         <v>0.1</v>
       </c>
       <c r="H240" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="241">
@@ -8178,7 +8900,10 @@
         <v>0.2</v>
       </c>
       <c r="H241" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="242">
@@ -8210,7 +8935,10 @@
         <v>0.21</v>
       </c>
       <c r="H242" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="243">
@@ -8242,7 +8970,10 @@
         <v>0.13</v>
       </c>
       <c r="H243" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="244">
@@ -8276,6 +9007,9 @@
       <c r="H244" t="n">
         <v>0.09</v>
       </c>
+      <c r="I244" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8308,6 +9042,9 @@
       <c r="H245" t="n">
         <v>0.04</v>
       </c>
+      <c r="I245" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8338,7 +9075,10 @@
         <v>0.27</v>
       </c>
       <c r="H246" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="247">
@@ -8372,6 +9112,9 @@
       <c r="H247" t="n">
         <v>0.27</v>
       </c>
+      <c r="I247" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8404,6 +9147,9 @@
       <c r="H248" t="n">
         <v>0.09</v>
       </c>
+      <c r="I248" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8434,7 +9180,10 @@
         <v>0.15</v>
       </c>
       <c r="H249" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="250">
@@ -8466,7 +9215,10 @@
         <v>0.1</v>
       </c>
       <c r="H250" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="251">
@@ -8500,6 +9252,9 @@
       <c r="H251" t="n">
         <v>0.08</v>
       </c>
+      <c r="I251" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8532,6 +9287,9 @@
       <c r="H252" t="n">
         <v>0.05</v>
       </c>
+      <c r="I252" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8564,6 +9322,9 @@
       <c r="H253" t="n">
         <v>0.25</v>
       </c>
+      <c r="I253" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8594,7 +9355,10 @@
         <v>0.09</v>
       </c>
       <c r="H254" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="255">
@@ -8628,6 +9392,9 @@
       <c r="H255" t="n">
         <v>0.13</v>
       </c>
+      <c r="I255" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8658,7 +9425,10 @@
         <v>0.17</v>
       </c>
       <c r="H256" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="257">
@@ -8692,6 +9462,9 @@
       <c r="H257" t="n">
         <v>0.11</v>
       </c>
+      <c r="I257" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8722,7 +9495,10 @@
         <v>0.04</v>
       </c>
       <c r="H258" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="259">
@@ -8756,6 +9532,9 @@
       <c r="H259" t="n">
         <v>0.05</v>
       </c>
+      <c r="I259" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8786,7 +9565,10 @@
         <v>0.43</v>
       </c>
       <c r="H260" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="261">
@@ -8818,7 +9600,10 @@
         <v>0.24</v>
       </c>
       <c r="H261" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="262">
@@ -8852,6 +9637,9 @@
       <c r="H262" t="n">
         <v>0.05</v>
       </c>
+      <c r="I262" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8882,7 +9670,10 @@
         <v>0.14</v>
       </c>
       <c r="H263" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="264">
@@ -8916,6 +9707,9 @@
       <c r="H264" t="n">
         <v>0.08</v>
       </c>
+      <c r="I264" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8948,6 +9742,9 @@
       <c r="H265" t="n">
         <v>0.04</v>
       </c>
+      <c r="I265" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8978,7 +9775,10 @@
         <v>0.005</v>
       </c>
       <c r="H266" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="267">
@@ -9010,7 +9810,10 @@
         <v>0.175</v>
       </c>
       <c r="H267" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="268">
@@ -9042,7 +9845,10 @@
         <v>0.52</v>
       </c>
       <c r="H268" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="269">
@@ -9074,7 +9880,10 @@
         <v>0.21</v>
       </c>
       <c r="H269" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="270">
@@ -9108,6 +9917,9 @@
       <c r="H270" t="n">
         <v>0.08</v>
       </c>
+      <c r="I270" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9140,6 +9952,9 @@
       <c r="H271" t="n">
         <v>0.02</v>
       </c>
+      <c r="I271" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9172,6 +9987,9 @@
       <c r="H272" t="n">
         <v>0.015</v>
       </c>
+      <c r="I272" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9204,6 +10022,9 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
+      <c r="I273" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9236,6 +10057,9 @@
       <c r="H274" t="n">
         <v>0.155</v>
       </c>
+      <c r="I274" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9268,6 +10092,9 @@
       <c r="H275" t="n">
         <v>0.51</v>
       </c>
+      <c r="I275" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9298,7 +10125,10 @@
         <v>0.19</v>
       </c>
       <c r="H276" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="277">
@@ -9332,6 +10162,9 @@
       <c r="H277" t="n">
         <v>0.1</v>
       </c>
+      <c r="I277" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9362,7 +10195,10 @@
         <v>0.03</v>
       </c>
       <c r="H278" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="279">
@@ -9396,6 +10232,9 @@
       <c r="H279" t="n">
         <v>0.015</v>
       </c>
+      <c r="I279" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9428,6 +10267,9 @@
       <c r="H280" t="n">
         <v>0.02</v>
       </c>
+      <c r="I280" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9458,7 +10300,10 @@
         <v>0.19</v>
       </c>
       <c r="H281" t="n">
-        <v>0.185</v>
+        <v>0.205</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="282">
@@ -9492,6 +10337,9 @@
       <c r="H282" t="n">
         <v>0.54</v>
       </c>
+      <c r="I282" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9524,6 +10372,9 @@
       <c r="H283" t="n">
         <v>0.04</v>
       </c>
+      <c r="I283" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9554,7 +10405,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H284" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="285">
@@ -9588,6 +10442,9 @@
       <c r="H285" t="n">
         <v>0.03</v>
       </c>
+      <c r="I285" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9620,6 +10477,9 @@
       <c r="H286" t="n">
         <v>0.09</v>
       </c>
+      <c r="I286" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9650,7 +10510,10 @@
         <v>0.005</v>
       </c>
       <c r="H287" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="288">
@@ -9684,6 +10547,9 @@
       <c r="H288" t="n">
         <v>0.18</v>
       </c>
+      <c r="I288" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9716,6 +10582,9 @@
       <c r="H289" t="n">
         <v>0.75</v>
       </c>
+      <c r="I289" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9748,6 +10617,9 @@
       <c r="H290" t="n">
         <v>0.04</v>
       </c>
+      <c r="I290" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9780,6 +10652,9 @@
       <c r="H291" t="n">
         <v>0.03</v>
       </c>
+      <c r="I291" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9812,6 +10687,9 @@
       <c r="H292" t="n">
         <v>0.03</v>
       </c>
+      <c r="I292" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9844,6 +10722,9 @@
       <c r="H293" t="n">
         <v>0.05</v>
       </c>
+      <c r="I293" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9876,6 +10757,9 @@
       <c r="H294" t="n">
         <v>0.01</v>
       </c>
+      <c r="I294" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9908,6 +10792,9 @@
       <c r="H295" t="n">
         <v>0.09</v>
       </c>
+      <c r="I295" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9938,7 +10825,10 @@
         <v>0.16</v>
       </c>
       <c r="H296" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="297">
@@ -9972,6 +10862,9 @@
       <c r="H297" t="n">
         <v>0.13</v>
       </c>
+      <c r="I297" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10004,6 +10897,9 @@
       <c r="H298" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I298" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10034,7 +10930,10 @@
         <v>0.1</v>
       </c>
       <c r="H299" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="300">
@@ -10068,6 +10967,9 @@
       <c r="H300" t="n">
         <v>0.04</v>
       </c>
+      <c r="I300" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10100,6 +11002,9 @@
       <c r="H301" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I301" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -10132,6 +11037,9 @@
       <c r="H302" t="n">
         <v>0.33</v>
       </c>
+      <c r="I302" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -10162,7 +11070,10 @@
         <v>0.27</v>
       </c>
       <c r="H303" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="304">
@@ -10196,6 +11107,9 @@
       <c r="H304" t="n">
         <v>0.08</v>
       </c>
+      <c r="I304" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -10228,6 +11142,9 @@
       <c r="H305" t="n">
         <v>0.12</v>
       </c>
+      <c r="I305" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -10260,6 +11177,9 @@
       <c r="H306" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I306" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -10292,6 +11212,9 @@
       <c r="H307" t="n">
         <v>0.05</v>
       </c>
+      <c r="I307" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -10324,6 +11247,9 @@
       <c r="H308" t="n">
         <v>0.05</v>
       </c>
+      <c r="I308" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10354,7 +11280,10 @@
         <v>0.22</v>
       </c>
       <c r="H309" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="310">
@@ -10386,7 +11315,10 @@
         <v>0.3</v>
       </c>
       <c r="H310" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="311">
@@ -10418,7 +11350,10 @@
         <v>0.23</v>
       </c>
       <c r="H311" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="312">
@@ -10452,6 +11387,9 @@
       <c r="H312" t="n">
         <v>0.13</v>
       </c>
+      <c r="I312" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10484,6 +11422,9 @@
       <c r="H313" t="n">
         <v>0.05</v>
       </c>
+      <c r="I313" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10516,6 +11457,9 @@
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
+      <c r="I314" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10548,6 +11492,9 @@
       <c r="H315" t="n">
         <v>0.01</v>
       </c>
+      <c r="I315" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10578,7 +11525,10 @@
         <v>0.19</v>
       </c>
       <c r="H316" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="317">
@@ -10612,6 +11562,9 @@
       <c r="H317" t="n">
         <v>0.43</v>
       </c>
+      <c r="I317" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10642,7 +11595,10 @@
         <v>0.23</v>
       </c>
       <c r="H318" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="319">
@@ -10676,6 +11632,9 @@
       <c r="H319" t="n">
         <v>0.13</v>
       </c>
+      <c r="I319" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10708,6 +11667,9 @@
       <c r="H320" t="n">
         <v>0.11</v>
       </c>
+      <c r="I320" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10740,6 +11702,9 @@
       <c r="H321" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I321" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10772,6 +11737,9 @@
       <c r="H322" t="n">
         <v>0.02</v>
       </c>
+      <c r="I322" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10802,7 +11770,10 @@
         <v>0.18</v>
       </c>
       <c r="H323" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="324">
@@ -10836,6 +11807,9 @@
       <c r="H324" t="n">
         <v>0.49</v>
       </c>
+      <c r="I324" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10868,6 +11842,9 @@
       <c r="H325" t="n">
         <v>0.05</v>
       </c>
+      <c r="I325" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10900,6 +11877,9 @@
       <c r="H326" t="n">
         <v>0.14</v>
       </c>
+      <c r="I326" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10932,6 +11912,9 @@
       <c r="H327" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I327" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10964,6 +11947,9 @@
       <c r="H328" t="n">
         <v>0.03</v>
       </c>
+      <c r="I328" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10994,6 +11980,9 @@
         <v>0.005</v>
       </c>
       <c r="H329" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I329" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -11026,7 +12015,10 @@
         <v>0.265</v>
       </c>
       <c r="H330" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.235</v>
       </c>
     </row>
     <row r="331">
@@ -11060,6 +12052,9 @@
       <c r="H331" t="n">
         <v>0.55</v>
       </c>
+      <c r="I331" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -11090,7 +12085,10 @@
         <v>0.19</v>
       </c>
       <c r="H332" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="333">
@@ -11122,7 +12120,10 @@
         <v>0.12</v>
       </c>
       <c r="H333" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="334">
@@ -11156,6 +12157,9 @@
       <c r="H334" t="n">
         <v>0.05</v>
       </c>
+      <c r="I334" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -11186,7 +12190,10 @@
         <v>0.02</v>
       </c>
       <c r="H335" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="336">
@@ -11220,6 +12227,9 @@
       <c r="H336" t="n">
         <v>0.03</v>
       </c>
+      <c r="I336" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -11250,7 +12260,10 @@
         <v>0.145</v>
       </c>
       <c r="H337" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="338">
@@ -11282,7 +12295,10 @@
         <v>0.24</v>
       </c>
       <c r="H338" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="339">
@@ -11314,7 +12330,10 @@
         <v>0.21</v>
       </c>
       <c r="H339" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="340">
@@ -11346,7 +12365,10 @@
         <v>0.16</v>
       </c>
       <c r="H340" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="341">
@@ -11380,6 +12402,9 @@
       <c r="H341" t="n">
         <v>0.05</v>
       </c>
+      <c r="I341" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -11412,6 +12437,9 @@
       <c r="H342" t="n">
         <v>0.06</v>
       </c>
+      <c r="I342" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -11442,7 +12470,10 @@
         <v>0.02</v>
       </c>
       <c r="H343" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="344">
@@ -11474,7 +12505,10 @@
         <v>0.24</v>
       </c>
       <c r="H344" t="n">
-        <v>0.26</v>
+        <v>0.275</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="345">
@@ -11506,7 +12540,10 @@
         <v>0.35</v>
       </c>
       <c r="H345" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="346">
@@ -11540,6 +12577,9 @@
       <c r="H346" t="n">
         <v>0.08</v>
       </c>
+      <c r="I346" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -11570,7 +12610,10 @@
         <v>0.21</v>
       </c>
       <c r="H347" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="348">
@@ -11602,7 +12645,10 @@
         <v>0.01</v>
       </c>
       <c r="H348" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="349">
@@ -11636,6 +12682,9 @@
       <c r="H349" t="n">
         <v>0.05</v>
       </c>
+      <c r="I349" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -11668,6 +12717,9 @@
       <c r="H350" t="n">
         <v>0.05</v>
       </c>
+      <c r="I350" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -11698,7 +12750,10 @@
         <v>0.09</v>
       </c>
       <c r="H351" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="352">
@@ -11732,6 +12787,9 @@
       <c r="H352" t="n">
         <v>0.29</v>
       </c>
+      <c r="I352" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -11764,6 +12822,9 @@
       <c r="H353" t="n">
         <v>0.08</v>
       </c>
+      <c r="I353" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -11796,6 +12857,9 @@
       <c r="H354" t="n">
         <v>0.13</v>
       </c>
+      <c r="I354" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -11826,7 +12890,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H355" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="356">
@@ -11860,6 +12927,9 @@
       <c r="H356" t="n">
         <v>0.11</v>
       </c>
+      <c r="I356" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -11890,7 +12960,10 @@
         <v>0.015</v>
       </c>
       <c r="H357" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="358">
@@ -11924,6 +12997,9 @@
       <c r="H358" t="n">
         <v>0.26</v>
       </c>
+      <c r="I358" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -11956,6 +13032,9 @@
       <c r="H359" t="n">
         <v>0.38</v>
       </c>
+      <c r="I359" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -11988,6 +13067,9 @@
       <c r="H360" t="n">
         <v>0.09</v>
       </c>
+      <c r="I360" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -12020,6 +13102,9 @@
       <c r="H361" t="n">
         <v>0.13</v>
       </c>
+      <c r="I361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -12052,6 +13137,9 @@
       <c r="H362" t="n">
         <v>0.08</v>
       </c>
+      <c r="I362" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -12084,6 +13172,9 @@
       <c r="H363" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I363" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -12116,6 +13207,9 @@
       <c r="H364" t="n">
         <v>0.03</v>
       </c>
+      <c r="I364" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -12148,6 +13242,9 @@
       <c r="H365" t="n">
         <v>0.22</v>
       </c>
+      <c r="I365" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -12180,6 +13277,9 @@
       <c r="H366" t="n">
         <v>0.46</v>
       </c>
+      <c r="I366" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -12212,6 +13312,9 @@
       <c r="H367" t="n">
         <v>0.11</v>
       </c>
+      <c r="I367" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -12244,6 +13347,9 @@
       <c r="H368" t="n">
         <v>0.12</v>
       </c>
+      <c r="I368" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -12274,7 +13380,10 @@
         <v>0.09</v>
       </c>
       <c r="H369" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="370">
@@ -12308,6 +13417,9 @@
       <c r="H370" t="n">
         <v>0.06</v>
       </c>
+      <c r="I370" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -12340,6 +13452,9 @@
       <c r="H371" t="n">
         <v>0.02</v>
       </c>
+      <c r="I371" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -12370,7 +13485,10 @@
         <v>0.16</v>
       </c>
       <c r="H372" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="373">
@@ -12404,6 +13522,9 @@
       <c r="H373" t="n">
         <v>0.39</v>
       </c>
+      <c r="I373" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -12434,7 +13555,10 @@
         <v>0.22</v>
       </c>
       <c r="H374" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="375">
@@ -12466,7 +13590,10 @@
         <v>0.15</v>
       </c>
       <c r="H375" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="376">
@@ -12498,6 +13625,9 @@
         <v>0.06</v>
       </c>
       <c r="H376" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I376" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -12532,6 +13662,9 @@
       <c r="H377" t="n">
         <v>0.05</v>
       </c>
+      <c r="I377" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -12564,6 +13697,9 @@
       <c r="H378" t="n">
         <v>0.04</v>
       </c>
+      <c r="I378" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -12594,6 +13730,9 @@
         <v>0.28</v>
       </c>
       <c r="H379" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I379" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -12628,6 +13767,9 @@
       <c r="H380" t="n">
         <v>0.27</v>
       </c>
+      <c r="I380" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -12660,6 +13802,9 @@
       <c r="H381" t="n">
         <v>0.09</v>
       </c>
+      <c r="I381" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -12690,7 +13835,10 @@
         <v>0.21</v>
       </c>
       <c r="H382" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="383">
@@ -12724,6 +13872,9 @@
       <c r="H383" t="n">
         <v>0.1</v>
       </c>
+      <c r="I383" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -12756,6 +13907,9 @@
       <c r="H384" t="n">
         <v>0.05</v>
       </c>
+      <c r="I384" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -12788,6 +13942,9 @@
       <c r="H385" t="n">
         <v>0.04</v>
       </c>
+      <c r="I385" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -12818,7 +13975,10 @@
         <v>0.275</v>
       </c>
       <c r="H386" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="387">
@@ -12852,6 +14012,9 @@
       <c r="H387" t="n">
         <v>0.44</v>
       </c>
+      <c r="I387" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -12884,6 +14047,9 @@
       <c r="H388" t="n">
         <v>0.09</v>
       </c>
+      <c r="I388" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -12916,6 +14082,9 @@
       <c r="H389" t="n">
         <v>0.11</v>
       </c>
+      <c r="I389" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -12946,7 +14115,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H390" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="391">
@@ -12980,6 +14152,9 @@
       <c r="H391" t="n">
         <v>0.06</v>
       </c>
+      <c r="I391" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -13012,6 +14187,9 @@
       <c r="H392" t="n">
         <v>0.03</v>
       </c>
+      <c r="I392" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -13042,7 +14220,10 @@
         <v>0.23</v>
       </c>
       <c r="H393" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="394">
@@ -13076,6 +14257,9 @@
       <c r="H394" t="n">
         <v>0.31</v>
       </c>
+      <c r="I394" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -13108,6 +14292,9 @@
       <c r="H395" t="n">
         <v>0.08</v>
       </c>
+      <c r="I395" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -13138,7 +14325,10 @@
         <v>0.18</v>
       </c>
       <c r="H396" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="397">
@@ -13170,7 +14360,10 @@
         <v>0.08</v>
       </c>
       <c r="H397" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="398">
@@ -13204,6 +14397,9 @@
       <c r="H398" t="n">
         <v>0.05</v>
       </c>
+      <c r="I398" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -13236,6 +14432,9 @@
       <c r="H399" t="n">
         <v>0.04</v>
       </c>
+      <c r="I399" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -13268,6 +14467,9 @@
       <c r="H400" t="n">
         <v>0.3</v>
       </c>
+      <c r="I400" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -13300,6 +14502,9 @@
       <c r="H401" t="n">
         <v>0.38</v>
       </c>
+      <c r="I401" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -13332,6 +14537,9 @@
       <c r="H402" t="n">
         <v>0.09</v>
       </c>
+      <c r="I402" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -13364,6 +14572,9 @@
       <c r="H403" t="n">
         <v>0.13</v>
       </c>
+      <c r="I403" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -13394,7 +14605,10 @@
         <v>0.09</v>
       </c>
       <c r="H404" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="405">
@@ -13428,6 +14642,9 @@
       <c r="H405" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="I405" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -13460,6 +14677,9 @@
       <c r="H406" t="n">
         <v>0.03</v>
       </c>
+      <c r="I406" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -13490,7 +14710,10 @@
         <v>0.23</v>
       </c>
       <c r="H407" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="408">
@@ -13522,7 +14745,10 @@
         <v>0.33</v>
       </c>
       <c r="H408" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="409">
@@ -13556,6 +14782,9 @@
       <c r="H409" t="n">
         <v>0.1</v>
       </c>
+      <c r="I409" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -13586,7 +14815,10 @@
         <v>0.12</v>
       </c>
       <c r="H410" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="411">
@@ -13620,6 +14852,9 @@
       <c r="H411" t="n">
         <v>0.05</v>
       </c>
+      <c r="I411" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -13652,6 +14887,9 @@
       <c r="H412" t="n">
         <v>0.05</v>
       </c>
+      <c r="I412" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -13684,6 +14922,9 @@
       <c r="H413" t="n">
         <v>0.03</v>
       </c>
+      <c r="I413" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -13716,11 +14957,994 @@
       <c r="H414" t="n">
         <v>0.17</v>
       </c>
+      <c r="I414" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Již očkován/a třetí dávkou</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Není očkován/a ani jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Již očkován/a třetí dávkou</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Není očkován/a ani jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Již očkován/a třetí dávkou</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Není očkován/a ani jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Již očkován/a třetí dávkou</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Není očkován/a ani jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -13735,7 +15959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13779,6 +16003,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13804,7 +16033,10 @@
         <v>1767</v>
       </c>
       <c r="G2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -13831,7 +16063,10 @@
         <v>406</v>
       </c>
       <c r="G3" t="n">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="H3" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -13858,7 +16093,10 @@
         <v>1361</v>
       </c>
       <c r="G4" t="n">
-        <v>1403</v>
+        <v>1429</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="5">
@@ -13885,7 +16123,10 @@
         <v>442</v>
       </c>
       <c r="G5" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="H5" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="6">
@@ -13912,7 +16153,10 @@
         <v>647</v>
       </c>
       <c r="G6" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="H6" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="7">
@@ -13939,7 +16183,10 @@
         <v>678</v>
       </c>
       <c r="G7" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="H7" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="8">
@@ -13966,7 +16213,10 @@
         <v>818</v>
       </c>
       <c r="G8" t="n">
-        <v>838</v>
+        <v>848</v>
+      </c>
+      <c r="H8" t="n">
+        <v>827</v>
       </c>
     </row>
     <row r="9">
@@ -13993,7 +16243,10 @@
         <v>606</v>
       </c>
       <c r="G9" t="n">
-        <v>619</v>
+        <v>637</v>
+      </c>
+      <c r="H9" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="10">
@@ -14020,7 +16273,10 @@
         <v>343</v>
       </c>
       <c r="G10" t="n">
-        <v>358</v>
+        <v>363</v>
+      </c>
+      <c r="H10" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="11">
@@ -14047,6 +16303,9 @@
         <v>427</v>
       </c>
       <c r="G11" t="n">
+        <v>437</v>
+      </c>
+      <c r="H11" t="n">
         <v>435</v>
       </c>
     </row>
@@ -14074,7 +16333,10 @@
         <v>429</v>
       </c>
       <c r="G12" t="n">
-        <v>437</v>
+        <v>451</v>
+      </c>
+      <c r="H12" t="n">
+        <v>431</v>
       </c>
     </row>
     <row r="13">
@@ -14101,7 +16363,10 @@
         <v>234</v>
       </c>
       <c r="G13" t="n">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="H13" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="14">
@@ -14128,7 +16393,10 @@
         <v>391</v>
       </c>
       <c r="G14" t="n">
-        <v>403</v>
+        <v>411</v>
+      </c>
+      <c r="H14" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="15">
@@ -14155,7 +16423,10 @@
         <v>177</v>
       </c>
       <c r="G15" t="n">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="H15" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="16">
@@ -14184,6 +16455,9 @@
       <c r="G16" t="n">
         <v>110</v>
       </c>
+      <c r="H16" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14209,7 +16483,10 @@
         <v>567</v>
       </c>
       <c r="G17" t="n">
-        <v>740</v>
+        <v>759</v>
+      </c>
+      <c r="H17" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="18">
@@ -14236,7 +16513,10 @@
         <v>126</v>
       </c>
       <c r="G18" t="n">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="H18" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -14263,7 +16543,10 @@
         <v>80</v>
       </c>
       <c r="G19" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="H19" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -14290,7 +16573,10 @@
         <v>221</v>
       </c>
       <c r="G20" t="n">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="H20" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -14317,7 +16603,10 @@
         <v>817</v>
       </c>
       <c r="G21" t="n">
-        <v>834</v>
+        <v>846</v>
+      </c>
+      <c r="H21" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="22">
@@ -14344,7 +16633,10 @@
         <v>143</v>
       </c>
       <c r="G22" t="n">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="H22" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="23">
@@ -14371,7 +16663,10 @@
         <v>112</v>
       </c>
       <c r="G23" t="n">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="H23" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -14398,7 +16693,10 @@
         <v>695</v>
       </c>
       <c r="G24" t="n">
-        <v>721</v>
+        <v>736</v>
+      </c>
+      <c r="H24" t="n">
+        <v>711</v>
       </c>
     </row>
     <row r="25">
@@ -14425,7 +16723,10 @@
         <v>862</v>
       </c>
       <c r="G25" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="H25" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="26">
@@ -14452,7 +16753,10 @@
         <v>905</v>
       </c>
       <c r="G26" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="H26" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="27">
@@ -14479,7 +16783,10 @@
         <v>228</v>
       </c>
       <c r="G27" t="n">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="H27" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="28">
@@ -14506,7 +16813,10 @@
         <v>331</v>
       </c>
       <c r="G28" t="n">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="H28" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="29">
@@ -14533,7 +16843,10 @@
         <v>304</v>
       </c>
       <c r="G29" t="n">
-        <v>310</v>
+        <v>316</v>
+      </c>
+      <c r="H29" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="30">
@@ -14560,6 +16873,9 @@
         <v>215</v>
       </c>
       <c r="G30" t="n">
+        <v>216</v>
+      </c>
+      <c r="H30" t="n">
         <v>212</v>
       </c>
     </row>
@@ -14587,7 +16903,10 @@
         <v>316</v>
       </c>
       <c r="G31" t="n">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="H31" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="32">
@@ -14614,7 +16933,10 @@
         <v>373</v>
       </c>
       <c r="G32" t="n">
-        <v>385</v>
+        <v>392</v>
+      </c>
+      <c r="H32" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="33">
@@ -14641,7 +16963,10 @@
         <v>916</v>
       </c>
       <c r="G33" t="n">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="H33" t="n">
+        <v>931</v>
       </c>
     </row>
     <row r="34">
@@ -14668,6 +16993,9 @@
         <v>413</v>
       </c>
       <c r="G34" t="n">
+        <v>416</v>
+      </c>
+      <c r="H34" t="n">
         <v>413</v>
       </c>
     </row>
@@ -14695,7 +17023,10 @@
         <v>205</v>
       </c>
       <c r="G35" t="n">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="H35" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="36">
@@ -14722,7 +17053,10 @@
         <v>233</v>
       </c>
       <c r="G36" t="n">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="H36" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="37">
@@ -14749,7 +17083,10 @@
         <v>574</v>
       </c>
       <c r="G37" t="n">
-        <v>604</v>
+        <v>614</v>
+      </c>
+      <c r="H37" t="n">
+        <v>584</v>
       </c>
     </row>
     <row r="38">
@@ -14776,6 +17113,9 @@
         <v>266</v>
       </c>
       <c r="G38" t="n">
+        <v>265</v>
+      </c>
+      <c r="H38" t="n">
         <v>263</v>
       </c>
     </row>
@@ -14803,7 +17143,10 @@
         <v>119</v>
       </c>
       <c r="G39" t="n">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="H39" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -14830,7 +17173,10 @@
         <v>131</v>
       </c>
       <c r="G40" t="n">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="H40" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="41">
@@ -14857,7 +17203,10 @@
         <v>342</v>
       </c>
       <c r="G41" t="n">
-        <v>348</v>
+        <v>359</v>
+      </c>
+      <c r="H41" t="n">
+        <v>347</v>
       </c>
     </row>
     <row r="42">
@@ -14884,6 +17233,9 @@
         <v>146</v>
       </c>
       <c r="G42" t="n">
+        <v>151</v>
+      </c>
+      <c r="H42" t="n">
         <v>150</v>
       </c>
     </row>
@@ -14913,6 +17265,9 @@
       <c r="G43" t="n">
         <v>84</v>
       </c>
+      <c r="H43" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14938,7 +17293,10 @@
         <v>102</v>
       </c>
       <c r="G44" t="n">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="H44" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -14965,7 +17323,10 @@
         <v>190</v>
       </c>
       <c r="G45" t="n">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="H45" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="46">
@@ -14992,7 +17353,10 @@
         <v>640</v>
       </c>
       <c r="G46" t="n">
-        <v>630</v>
+        <v>642</v>
+      </c>
+      <c r="H46" t="n">
+        <v>588</v>
       </c>
     </row>
     <row r="47">
@@ -15019,7 +17383,10 @@
         <v>596</v>
       </c>
       <c r="G47" t="n">
-        <v>605</v>
+        <v>619</v>
+      </c>
+      <c r="H47" t="n">
+        <v>623</v>
       </c>
     </row>
     <row r="48">
@@ -15046,7 +17413,10 @@
         <v>244</v>
       </c>
       <c r="G48" t="n">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="H48" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="49">
@@ -15075,6 +17445,9 @@
       <c r="G49" t="n">
         <v>334</v>
       </c>
+      <c r="H49" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15100,7 +17473,10 @@
         <v>228</v>
       </c>
       <c r="G50" t="n">
-        <v>255</v>
+        <v>263</v>
+      </c>
+      <c r="H50" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="51">
@@ -15127,7 +17503,10 @@
         <v>334</v>
       </c>
       <c r="G51" t="n">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="H51" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="52">
@@ -15154,7 +17533,10 @@
         <v>243</v>
       </c>
       <c r="G52" t="n">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="H52" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="53">
@@ -15181,7 +17563,10 @@
         <v>444</v>
       </c>
       <c r="G53" t="n">
-        <v>487</v>
+        <v>492</v>
+      </c>
+      <c r="H53" t="n">
+        <v>510</v>
       </c>
     </row>
     <row r="54">
@@ -15208,7 +17593,10 @@
         <v>579</v>
       </c>
       <c r="G54" t="n">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="H54" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="55">
@@ -15235,7 +17623,10 @@
         <v>447</v>
       </c>
       <c r="G55" t="n">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="H55" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="56">
@@ -15262,7 +17653,10 @@
         <v>741</v>
       </c>
       <c r="G56" t="n">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="H56" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="57">
@@ -15291,6 +17685,9 @@
       <c r="G57" t="n">
         <v>418</v>
       </c>
+      <c r="H57" t="n">
+        <v>506</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15316,7 +17713,10 @@
         <v>1401</v>
       </c>
       <c r="G58" t="n">
-        <v>1397</v>
+        <v>1430</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1280</v>
       </c>
     </row>
     <row r="59">
@@ -15343,7 +17743,10 @@
         <v>422</v>
       </c>
       <c r="G59" t="n">
-        <v>494</v>
+        <v>499</v>
+      </c>
+      <c r="H59" t="n">
+        <v>567</v>
       </c>
     </row>
     <row r="60">
@@ -15370,7 +17773,10 @@
         <v>723</v>
       </c>
       <c r="G60" t="n">
-        <v>759</v>
+        <v>773</v>
+      </c>
+      <c r="H60" t="n">
+        <v>778</v>
       </c>
     </row>
     <row r="61">
@@ -15397,21 +17803,145 @@
         <v>622</v>
       </c>
       <c r="G61" t="n">
-        <v>562</v>
+        <v>576</v>
+      </c>
+      <c r="H61" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>613</v>
+      </c>
+      <c r="D62" t="n">
+        <v>548</v>
+      </c>
+      <c r="E62" t="n">
+        <v>598</v>
+      </c>
+      <c r="F62" t="n">
+        <v>590</v>
+      </c>
+      <c r="G62" t="n">
+        <v>623</v>
+      </c>
+      <c r="H62" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>567</v>
+      </c>
+      <c r="D63" t="n">
+        <v>532</v>
+      </c>
+      <c r="E63" t="n">
+        <v>551</v>
+      </c>
+      <c r="F63" t="n">
+        <v>538</v>
+      </c>
+      <c r="G63" t="n">
+        <v>570</v>
+      </c>
+      <c r="H63" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>486</v>
+      </c>
+      <c r="D64" t="n">
+        <v>459</v>
+      </c>
+      <c r="E64" t="n">
+        <v>456</v>
+      </c>
+      <c r="F64" t="n">
+        <v>453</v>
+      </c>
+      <c r="G64" t="n">
+        <v>466</v>
+      </c>
+      <c r="H64" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>189</v>
+      </c>
+      <c r="D65" t="n">
+        <v>170</v>
+      </c>
+      <c r="E65" t="n">
+        <v>185</v>
+      </c>
+      <c r="F65" t="n">
+        <v>186</v>
+      </c>
+      <c r="G65" t="n">
+        <v>189</v>
+      </c>
+      <c r="H65" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Zájem o přeočkování třetí dávkou, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
